--- a/dev/r3PGmix_info.xlsx
+++ b/dev/r3PGmix_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trotsiuk/Documents/software/r3PG/r3PGmix/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D808DFE-964B-3D49-8282-87A1F38644D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1127263C-00EC-9B49-A18D-465C79140433}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="460" windowWidth="22840" windowHeight="17540" xr2:uid="{9ECC47CC-383C-4247-B9D3-046711674009}"/>
+    <workbookView xWindow="29200" yWindow="460" windowWidth="18020" windowHeight="28340" xr2:uid="{9ECC47CC-383C-4247-B9D3-046711674009}"/>
   </bookViews>
   <sheets>
     <sheet name="var_names" sheetId="1" r:id="rId1"/>
@@ -846,9 +846,6 @@
     <t>biom_stem</t>
   </si>
   <si>
-    <t>biom_total</t>
-  </si>
-  <si>
     <t>biom_tree</t>
   </si>
   <si>
@@ -942,9 +939,6 @@
     <t>epsilon_sb</t>
   </si>
   <si>
-    <t>spsilon_npp</t>
-  </si>
-  <si>
     <t>volume_incr</t>
   </si>
   <si>
@@ -972,9 +966,6 @@
     <t>litter_rate</t>
   </si>
   <si>
-    <t>biom_litter_total</t>
-  </si>
-  <si>
     <t>Self thinning</t>
   </si>
   <si>
@@ -1399,6 +1390,15 @@
   </si>
   <si>
     <t>transp_veg</t>
+  </si>
+  <si>
+    <t>var_4_4</t>
+  </si>
+  <si>
+    <t>var_4_5</t>
+  </si>
+  <si>
+    <t>epsilon_npp</t>
   </si>
 </sst>
 </file>
@@ -1752,8 +1752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EDA796-FB5E-0A42-AB5E-6B438DB45270}">
   <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="42.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1791,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1871,7 +1871,7 @@
         <v>219</v>
       </c>
       <c r="E5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F5" t="s">
         <v>189</v>
@@ -1911,13 +1911,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D7" t="s">
         <v>219</v>
       </c>
       <c r="E7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F7" t="s">
         <v>193</v>
@@ -1995,7 +1995,7 @@
         <v>235</v>
       </c>
       <c r="H10" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2021,7 +2021,7 @@
         <v>234</v>
       </c>
       <c r="H11" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2044,7 +2044,7 @@
         <v>233</v>
       </c>
       <c r="H12" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -2055,7 +2055,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D13" t="s">
         <v>219</v>
@@ -2069,7 +2069,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D14" t="s">
         <v>219</v>
@@ -2083,7 +2083,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D15" t="s">
         <v>219</v>
@@ -2097,7 +2097,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D16" t="s">
         <v>219</v>
@@ -2180,7 +2180,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D20" t="s">
         <v>239</v>
@@ -2203,7 +2203,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D21" t="s">
         <v>239</v>
@@ -2226,7 +2226,7 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D22" t="s">
         <v>239</v>
@@ -2387,7 +2387,7 @@
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D29" t="s">
         <v>239</v>
@@ -2401,7 +2401,7 @@
         <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D30" t="s">
         <v>239</v>
@@ -2415,7 +2415,7 @@
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D31" t="s">
         <v>239</v>
@@ -2461,7 +2461,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D33" t="s">
         <v>259</v>
@@ -2507,7 +2507,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D35" t="s">
         <v>259</v>
@@ -2668,7 +2668,7 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D42" t="s">
         <v>259</v>
@@ -2682,7 +2682,7 @@
         <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D43" t="s">
         <v>259</v>
@@ -2696,7 +2696,7 @@
         <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D44" t="s">
         <v>259</v>
@@ -2710,7 +2710,7 @@
         <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D45" t="s">
         <v>259</v>
@@ -2724,7 +2724,7 @@
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D46" t="s">
         <v>259</v>
@@ -2750,7 +2750,7 @@
         <v>201</v>
       </c>
       <c r="G47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -2773,7 +2773,7 @@
         <v>201</v>
       </c>
       <c r="G48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -2796,7 +2796,7 @@
         <v>201</v>
       </c>
       <c r="G49" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -2807,7 +2807,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>315</v>
+        <v>455</v>
       </c>
       <c r="D50" t="s">
         <v>269</v>
@@ -2819,7 +2819,7 @@
         <v>201</v>
       </c>
       <c r="G50" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -2830,7 +2830,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>273</v>
+        <v>456</v>
       </c>
       <c r="D51" t="s">
         <v>269</v>
@@ -2842,7 +2842,7 @@
         <v>201</v>
       </c>
       <c r="G51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -2853,7 +2853,7 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D52" t="s">
         <v>269</v>
@@ -2865,7 +2865,7 @@
         <v>206</v>
       </c>
       <c r="G52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -2876,7 +2876,7 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D53" t="s">
         <v>269</v>
@@ -2888,7 +2888,7 @@
         <v>207</v>
       </c>
       <c r="G53" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -2899,7 +2899,7 @@
         <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D54" t="s">
         <v>269</v>
@@ -2908,7 +2908,7 @@
         <v>41</v>
       </c>
       <c r="G54" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -2919,10 +2919,10 @@
         <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D55" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E55" t="s">
         <v>66</v>
@@ -2931,7 +2931,7 @@
         <v>211</v>
       </c>
       <c r="G55" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H55" t="s">
         <v>156</v>
@@ -2945,10 +2945,10 @@
         <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D56" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E56" t="s">
         <v>67</v>
@@ -2957,7 +2957,7 @@
         <v>201</v>
       </c>
       <c r="G56" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -2968,10 +2968,10 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D57" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E57" t="s">
         <v>68</v>
@@ -2991,7 +2991,7 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D58" t="s">
         <v>269</v>
@@ -3005,7 +3005,7 @@
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D59" t="s">
         <v>269</v>
@@ -3019,7 +3019,7 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D60" t="s">
         <v>269</v>
@@ -3033,7 +3033,7 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D61" t="s">
         <v>269</v>
@@ -3047,10 +3047,10 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D62" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E62" t="s">
         <v>42</v>
@@ -3070,10 +3070,10 @@
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D63" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E63" t="s">
         <v>43</v>
@@ -3093,10 +3093,10 @@
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D64" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E64" t="s">
         <v>44</v>
@@ -3105,7 +3105,7 @@
         <v>200</v>
       </c>
       <c r="G64" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -3116,10 +3116,10 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D65" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E65" t="s">
         <v>45</v>
@@ -3139,10 +3139,10 @@
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D66" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E66" t="s">
         <v>46</v>
@@ -3162,10 +3162,10 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D67" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E67" t="s">
         <v>47</v>
@@ -3185,10 +3185,10 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D68" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E68" t="s">
         <v>48</v>
@@ -3208,10 +3208,10 @@
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D69" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E69" t="s">
         <v>49</v>
@@ -3231,10 +3231,10 @@
         <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D70" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E70" t="s">
         <v>50</v>
@@ -3254,10 +3254,10 @@
         <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D71" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E71" t="s">
         <v>51</v>
@@ -3277,10 +3277,10 @@
         <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D72" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -3291,10 +3291,10 @@
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D73" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -3305,10 +3305,10 @@
         <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D74" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -3319,10 +3319,10 @@
         <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D75" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -3333,10 +3333,10 @@
         <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D76" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -3347,10 +3347,10 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D77" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E77" t="s">
         <v>52</v>
@@ -3370,10 +3370,10 @@
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D78" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E78" t="s">
         <v>53</v>
@@ -3393,10 +3393,10 @@
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D79" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E79" t="s">
         <v>54</v>
@@ -3405,7 +3405,7 @@
         <v>208</v>
       </c>
       <c r="G79" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -3419,7 +3419,7 @@
         <v>145</v>
       </c>
       <c r="D80" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E80" t="s">
         <v>55</v>
@@ -3439,10 +3439,10 @@
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D81" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E81" t="s">
         <v>56</v>
@@ -3462,10 +3462,10 @@
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D82" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E82" t="s">
         <v>57</v>
@@ -3485,10 +3485,10 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D83" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E83" t="s">
         <v>58</v>
@@ -3508,10 +3508,10 @@
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>305</v>
+        <v>457</v>
       </c>
       <c r="D84" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E84" t="s">
         <v>59</v>
@@ -3531,10 +3531,10 @@
         <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D85" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E85" t="s">
         <v>60</v>
@@ -3554,10 +3554,10 @@
         <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D86" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E86" t="s">
         <v>61</v>
@@ -3577,10 +3577,10 @@
         <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D87" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E87" t="s">
         <v>62</v>
@@ -3600,10 +3600,10 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D88" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E88" t="s">
         <v>63</v>
@@ -3623,10 +3623,10 @@
         <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D89" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E89" t="s">
         <v>64</v>
@@ -3646,10 +3646,10 @@
         <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D90" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E90" t="s">
         <v>65</v>
@@ -3669,7 +3669,7 @@
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -3680,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D92" t="s">
         <v>160</v>
@@ -3726,7 +3726,7 @@
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D94" t="s">
         <v>160</v>
@@ -3738,7 +3738,7 @@
         <v>195</v>
       </c>
       <c r="G94" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -3749,7 +3749,7 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D95" t="s">
         <v>160</v>
@@ -3772,7 +3772,7 @@
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D96" t="s">
         <v>160</v>
@@ -3786,7 +3786,7 @@
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D97" t="s">
         <v>160</v>
@@ -3800,7 +3800,7 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D98" t="s">
         <v>160</v>
@@ -3814,7 +3814,7 @@
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D99" t="s">
         <v>160</v>
@@ -3828,7 +3828,7 @@
         <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D100" t="s">
         <v>160</v>
@@ -3842,7 +3842,7 @@
         <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D101" t="s">
         <v>160</v>
@@ -3856,7 +3856,7 @@
         <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D102" t="s">
         <v>160</v>
@@ -3870,7 +3870,7 @@
         <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D103" t="s">
         <v>160</v>
@@ -3884,7 +3884,7 @@
         <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D104" t="s">
         <v>160</v>
@@ -3898,7 +3898,7 @@
         <v>14</v>
       </c>
       <c r="C105" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D105" t="s">
         <v>160</v>
@@ -3912,7 +3912,7 @@
         <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D106" t="s">
         <v>160</v>
@@ -3926,10 +3926,10 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D107" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E107" t="s">
         <v>74</v>
@@ -3938,7 +3938,7 @@
         <v>213</v>
       </c>
       <c r="G107" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -3949,10 +3949,10 @@
         <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D108" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E108" t="s">
         <v>75</v>
@@ -3961,7 +3961,7 @@
         <v>213</v>
       </c>
       <c r="G108" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -3972,10 +3972,10 @@
         <v>3</v>
       </c>
       <c r="C109" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D109" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E109" t="s">
         <v>76</v>
@@ -3984,7 +3984,7 @@
         <v>200</v>
       </c>
       <c r="G109" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H109" t="s">
         <v>161</v>
@@ -3998,10 +3998,10 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D110" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E110" t="s">
         <v>77</v>
@@ -4010,7 +4010,7 @@
         <v>213</v>
       </c>
       <c r="G110" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H110" t="s">
         <v>162</v>
@@ -4024,10 +4024,10 @@
         <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D111" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E111" t="s">
         <v>78</v>
@@ -4047,10 +4047,10 @@
         <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D112" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E112" t="s">
         <v>79</v>
@@ -4070,10 +4070,10 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D113" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E113" t="s">
         <v>80</v>
@@ -4082,7 +4082,7 @@
         <v>215</v>
       </c>
       <c r="G113" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -4093,10 +4093,10 @@
         <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D114" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E114" t="s">
         <v>81</v>
@@ -4116,10 +4116,10 @@
         <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D115" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E115" t="s">
         <v>82</v>
@@ -4139,10 +4139,10 @@
         <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D116" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E116" t="s">
         <v>83</v>
@@ -4151,7 +4151,7 @@
         <v>215</v>
       </c>
       <c r="G116" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -4162,10 +4162,10 @@
         <v>11</v>
       </c>
       <c r="C117" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D117" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E117" t="s">
         <v>84</v>
@@ -4174,10 +4174,10 @@
         <v>215</v>
       </c>
       <c r="G117" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I117" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -4188,10 +4188,10 @@
         <v>12</v>
       </c>
       <c r="C118" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D118" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E118" t="s">
         <v>85</v>
@@ -4211,10 +4211,10 @@
         <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D119" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E119" t="s">
         <v>86</v>
@@ -4223,7 +4223,7 @@
         <v>213</v>
       </c>
       <c r="G119" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -4234,10 +4234,10 @@
         <v>14</v>
       </c>
       <c r="C120" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D120" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -4248,10 +4248,10 @@
         <v>15</v>
       </c>
       <c r="C121" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D121" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -4262,10 +4262,10 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D122" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E122" t="s">
         <v>87</v>
@@ -4285,10 +4285,10 @@
         <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D123" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E123" t="s">
         <v>88</v>
@@ -4308,10 +4308,10 @@
         <v>3</v>
       </c>
       <c r="C124" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D124" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E124" t="s">
         <v>89</v>
@@ -4331,10 +4331,10 @@
         <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D125" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E125" t="s">
         <v>90</v>
@@ -4354,10 +4354,10 @@
         <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D126" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E126" t="s">
         <v>91</v>
@@ -4377,10 +4377,10 @@
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D127" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E127" t="s">
         <v>92</v>
@@ -4400,10 +4400,10 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D128" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E128" t="s">
         <v>93</v>
@@ -4423,10 +4423,10 @@
         <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D129" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E129" t="s">
         <v>94</v>
@@ -4446,10 +4446,10 @@
         <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D130" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E130" t="s">
         <v>95</v>
@@ -4469,10 +4469,10 @@
         <v>10</v>
       </c>
       <c r="C131" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D131" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -4483,10 +4483,10 @@
         <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D132" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -4497,10 +4497,10 @@
         <v>12</v>
       </c>
       <c r="C133" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D133" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
@@ -4511,10 +4511,10 @@
         <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D134" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -4525,10 +4525,10 @@
         <v>14</v>
       </c>
       <c r="C135" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D135" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -4539,10 +4539,10 @@
         <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D136" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -4553,10 +4553,10 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D137" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E137" t="s">
         <v>96</v>
@@ -4565,7 +4565,7 @@
         <v>200</v>
       </c>
       <c r="G137" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H137" t="s">
         <v>175</v>
@@ -4579,10 +4579,10 @@
         <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D138" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E138" t="s">
         <v>97</v>
@@ -4591,7 +4591,7 @@
         <v>200</v>
       </c>
       <c r="G138" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H138" t="s">
         <v>176</v>
@@ -4605,10 +4605,10 @@
         <v>3</v>
       </c>
       <c r="C139" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D139" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E139" t="s">
         <v>98</v>
@@ -4617,7 +4617,7 @@
         <v>200</v>
       </c>
       <c r="G139" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H139" t="s">
         <v>177</v>
@@ -4631,10 +4631,10 @@
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D140" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E140" t="s">
         <v>99</v>
@@ -4643,7 +4643,7 @@
         <v>200</v>
       </c>
       <c r="G140" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H140" t="s">
         <v>178</v>
@@ -4657,10 +4657,10 @@
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D141" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E141" t="s">
         <v>100</v>
@@ -4669,7 +4669,7 @@
         <v>200</v>
       </c>
       <c r="G141" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H141" t="s">
         <v>179</v>
@@ -4683,10 +4683,10 @@
         <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D142" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E142" t="s">
         <v>101</v>
@@ -4695,7 +4695,7 @@
         <v>200</v>
       </c>
       <c r="G142" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H142" t="s">
         <v>180</v>
@@ -4709,10 +4709,10 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D143" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E143" t="s">
         <v>102</v>
@@ -4721,7 +4721,7 @@
         <v>204</v>
       </c>
       <c r="G143" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H143" t="s">
         <v>181</v>
@@ -4735,10 +4735,10 @@
         <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D144" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E144" t="s">
         <v>103</v>
@@ -4747,7 +4747,7 @@
         <v>204</v>
       </c>
       <c r="G144" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H144" t="s">
         <v>182</v>
@@ -4761,10 +4761,10 @@
         <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D145" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E145" t="s">
         <v>104</v>
@@ -4773,7 +4773,7 @@
         <v>204</v>
       </c>
       <c r="G145" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H145" t="s">
         <v>183</v>
@@ -4787,10 +4787,10 @@
         <v>10</v>
       </c>
       <c r="C146" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D146" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E146" t="s">
         <v>105</v>
@@ -4799,7 +4799,7 @@
         <v>204</v>
       </c>
       <c r="G146" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H146" t="s">
         <v>184</v>
@@ -4813,10 +4813,10 @@
         <v>11</v>
       </c>
       <c r="C147" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D147" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E147" t="s">
         <v>106</v>
@@ -4825,7 +4825,7 @@
         <v>204</v>
       </c>
       <c r="G147" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H147" t="s">
         <v>185</v>
@@ -4839,10 +4839,10 @@
         <v>12</v>
       </c>
       <c r="C148" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D148" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E148" t="s">
         <v>107</v>
@@ -4851,7 +4851,7 @@
         <v>204</v>
       </c>
       <c r="G148" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H148" t="s">
         <v>186</v>
@@ -4865,10 +4865,10 @@
         <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D149" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E149" t="s">
         <v>108</v>
@@ -4877,7 +4877,7 @@
         <v>204</v>
       </c>
       <c r="G149" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H149" t="s">
         <v>187</v>
@@ -4891,10 +4891,10 @@
         <v>14</v>
       </c>
       <c r="C150" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D150" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E150" t="s">
         <v>109</v>
@@ -4903,7 +4903,7 @@
         <v>204</v>
       </c>
       <c r="G150" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H150" t="s">
         <v>188</v>
@@ -4917,10 +4917,10 @@
         <v>15</v>
       </c>
       <c r="C151" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D151" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -4931,10 +4931,10 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D152" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E152" t="s">
         <v>23</v>
@@ -4943,7 +4943,7 @@
         <v>195</v>
       </c>
       <c r="G152" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H152" t="s">
         <v>119</v>
@@ -4957,10 +4957,10 @@
         <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D153" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E153" t="s">
         <v>17</v>
@@ -4969,7 +4969,7 @@
         <v>198</v>
       </c>
       <c r="G153" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H153" t="s">
         <v>120</v>
@@ -4983,10 +4983,10 @@
         <v>3</v>
       </c>
       <c r="C154" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D154" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E154" t="s">
         <v>12</v>
@@ -4995,7 +4995,7 @@
         <v>196</v>
       </c>
       <c r="G154" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H154" t="s">
         <v>121</v>
@@ -5009,10 +5009,10 @@
         <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D155" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E155" t="s">
         <v>13</v>
@@ -5021,7 +5021,7 @@
         <v>197</v>
       </c>
       <c r="G155" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H155" t="s">
         <v>122</v>
@@ -5035,10 +5035,10 @@
         <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D156" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E156" t="s">
         <v>19</v>
@@ -5047,7 +5047,7 @@
         <v>151</v>
       </c>
       <c r="G156" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H156" t="s">
         <v>123</v>
@@ -5061,10 +5061,10 @@
         <v>6</v>
       </c>
       <c r="C157" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D157" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E157" t="s">
         <v>24</v>
@@ -5073,7 +5073,7 @@
         <v>201</v>
       </c>
       <c r="G157" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H157" t="s">
         <v>124</v>
@@ -5087,10 +5087,10 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D158" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -5101,10 +5101,10 @@
         <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D159" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -5115,10 +5115,10 @@
         <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D160" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -5129,10 +5129,10 @@
         <v>10</v>
       </c>
       <c r="C161" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D161" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -5143,10 +5143,10 @@
         <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D162" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -5157,10 +5157,10 @@
         <v>12</v>
       </c>
       <c r="C163" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D163" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -5171,10 +5171,10 @@
         <v>13</v>
       </c>
       <c r="C164" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D164" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -5185,10 +5185,10 @@
         <v>14</v>
       </c>
       <c r="C165" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D165" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -5199,10 +5199,10 @@
         <v>15</v>
       </c>
       <c r="C166" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D166" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/dev/r3PGmix_info.xlsx
+++ b/dev/r3PGmix_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trotsiuk/Documents/software/r3PG/r3PGmix/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1127263C-00EC-9B49-A18D-465C79140433}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24917AE-341C-1A4B-8453-D1E827ECB92B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29200" yWindow="460" windowWidth="18020" windowHeight="28340" xr2:uid="{9ECC47CC-383C-4247-B9D3-046711674009}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="456">
   <si>
     <t>description</t>
   </si>
@@ -1275,21 +1275,6 @@
     <t>var_8_15</t>
   </si>
   <si>
-    <t>var_9_1</t>
-  </si>
-  <si>
-    <t>var_9_2</t>
-  </si>
-  <si>
-    <t>var_9_3</t>
-  </si>
-  <si>
-    <t>var_9_4</t>
-  </si>
-  <si>
-    <t>var_9_5</t>
-  </si>
-  <si>
     <t>var_9_6</t>
   </si>
   <si>
@@ -1399,6 +1384,15 @@
   </si>
   <si>
     <t>epsilon_npp</t>
+  </si>
+  <si>
+    <t>Gc_mol</t>
+  </si>
+  <si>
+    <t>Gw_mol</t>
+  </si>
+  <si>
+    <t>InterCi</t>
   </si>
 </sst>
 </file>
@@ -1752,8 +1746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EDA796-FB5E-0A42-AB5E-6B438DB45270}">
   <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="42.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2180,7 +2174,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D20" t="s">
         <v>239</v>
@@ -2203,7 +2197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D21" t="s">
         <v>239</v>
@@ -2807,7 +2801,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D50" t="s">
         <v>269</v>
@@ -2830,7 +2824,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D51" t="s">
         <v>269</v>
@@ -2945,7 +2939,7 @@
         <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D56" t="s">
         <v>297</v>
@@ -2968,7 +2962,7 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D57" t="s">
         <v>297</v>
@@ -3405,7 +3399,7 @@
         <v>208</v>
       </c>
       <c r="G79" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -3508,7 +3502,7 @@
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D84" t="s">
         <v>297</v>
@@ -3669,7 +3663,7 @@
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -4139,7 +4133,7 @@
         <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D116" t="s">
         <v>325</v>
@@ -4177,7 +4171,7 @@
         <v>323</v>
       </c>
       <c r="I117" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -4262,7 +4256,7 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>416</v>
+        <v>453</v>
       </c>
       <c r="D122" t="s">
         <v>338</v>
@@ -4285,7 +4279,7 @@
         <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>417</v>
+        <v>454</v>
       </c>
       <c r="D123" t="s">
         <v>338</v>
@@ -4308,7 +4302,7 @@
         <v>3</v>
       </c>
       <c r="C124" t="s">
-        <v>418</v>
+        <v>168</v>
       </c>
       <c r="D124" t="s">
         <v>338</v>
@@ -4331,7 +4325,7 @@
         <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>419</v>
+        <v>169</v>
       </c>
       <c r="D125" t="s">
         <v>338</v>
@@ -4354,7 +4348,7 @@
         <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="D126" t="s">
         <v>338</v>
@@ -4377,7 +4371,7 @@
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D127" t="s">
         <v>338</v>
@@ -4400,7 +4394,7 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D128" t="s">
         <v>338</v>
@@ -4423,7 +4417,7 @@
         <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D129" t="s">
         <v>338</v>
@@ -4446,7 +4440,7 @@
         <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D130" t="s">
         <v>338</v>
@@ -4469,7 +4463,7 @@
         <v>10</v>
       </c>
       <c r="C131" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D131" t="s">
         <v>338</v>
@@ -4483,7 +4477,7 @@
         <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D132" t="s">
         <v>338</v>
@@ -4497,7 +4491,7 @@
         <v>12</v>
       </c>
       <c r="C133" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D133" t="s">
         <v>338</v>
@@ -4511,7 +4505,7 @@
         <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D134" t="s">
         <v>338</v>
@@ -4525,7 +4519,7 @@
         <v>14</v>
       </c>
       <c r="C135" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D135" t="s">
         <v>338</v>
@@ -4539,7 +4533,7 @@
         <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D136" t="s">
         <v>338</v>
@@ -4917,7 +4911,7 @@
         <v>15</v>
       </c>
       <c r="C151" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D151" t="s">
         <v>339</v>
@@ -4931,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D152" t="s">
         <v>368</v>
@@ -4957,7 +4951,7 @@
         <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D153" t="s">
         <v>368</v>
@@ -4983,7 +4977,7 @@
         <v>3</v>
       </c>
       <c r="C154" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D154" t="s">
         <v>368</v>
@@ -5009,7 +5003,7 @@
         <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D155" t="s">
         <v>368</v>
@@ -5035,7 +5029,7 @@
         <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D156" t="s">
         <v>368</v>
@@ -5061,7 +5055,7 @@
         <v>6</v>
       </c>
       <c r="C157" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D157" t="s">
         <v>368</v>
@@ -5087,7 +5081,7 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D158" t="s">
         <v>368</v>
@@ -5101,7 +5095,7 @@
         <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D159" t="s">
         <v>368</v>
@@ -5115,7 +5109,7 @@
         <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D160" t="s">
         <v>368</v>
@@ -5129,7 +5123,7 @@
         <v>10</v>
       </c>
       <c r="C161" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D161" t="s">
         <v>368</v>
@@ -5143,7 +5137,7 @@
         <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D162" t="s">
         <v>368</v>
@@ -5157,7 +5151,7 @@
         <v>12</v>
       </c>
       <c r="C163" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D163" t="s">
         <v>368</v>
@@ -5171,7 +5165,7 @@
         <v>13</v>
       </c>
       <c r="C164" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D164" t="s">
         <v>368</v>
@@ -5185,7 +5179,7 @@
         <v>14</v>
       </c>
       <c r="C165" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D165" t="s">
         <v>368</v>
@@ -5199,7 +5193,7 @@
         <v>15</v>
       </c>
       <c r="C166" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D166" t="s">
         <v>368</v>

--- a/dev/r3PGmix_info.xlsx
+++ b/dev/r3PGmix_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trotsiuk/Documents/software/r3PG/r3PGmix/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24917AE-341C-1A4B-8453-D1E827ECB92B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414F68FE-2FD1-DB40-9D0A-9822DE42E821}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29200" yWindow="460" windowWidth="18020" windowHeight="28340" xr2:uid="{9ECC47CC-383C-4247-B9D3-046711674009}"/>
+    <workbookView xWindow="27280" yWindow="460" windowWidth="18020" windowHeight="28340" xr2:uid="{9ECC47CC-383C-4247-B9D3-046711674009}"/>
   </bookViews>
   <sheets>
     <sheet name="var_names" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="453">
   <si>
     <t>description</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Atmospheric CO2</t>
   </si>
   <si>
-    <t>Monthly atmospheric CO2</t>
-  </si>
-  <si>
     <t>Applied irrigation</t>
   </si>
   <si>
@@ -357,15 +354,6 @@
     <t xml:space="preserve">Relative bias of calculating mean crown diameter from avDBH </t>
   </si>
   <si>
-    <t>FrostDays</t>
-  </si>
-  <si>
-    <t>SolarRad</t>
-  </si>
-  <si>
-    <t>Tav</t>
-  </si>
-  <si>
     <t>VPD</t>
   </si>
   <si>
@@ -717,9 +705,6 @@
     <t>co2</t>
   </si>
   <si>
-    <t>co2_atm</t>
-  </si>
-  <si>
     <t>irrig</t>
   </si>
   <si>
@@ -732,9 +717,6 @@
     <t>Applied irrig.</t>
   </si>
   <si>
-    <t>Atm CO2</t>
-  </si>
-  <si>
     <t>Rainfall</t>
   </si>
   <si>
@@ -1164,9 +1146,6 @@
     <t>included</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>crown_length</t>
   </si>
   <si>
@@ -1393,6 +1372,18 @@
   </si>
   <si>
     <t>InterCi</t>
+  </si>
+  <si>
+    <t>Frost days</t>
+  </si>
+  <si>
+    <t>Solar rad.</t>
+  </si>
+  <si>
+    <t>Mean temp.</t>
+  </si>
+  <si>
+    <t>var_1_11</t>
   </si>
 </sst>
 </file>
@@ -1746,8 +1737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EDA796-FB5E-0A42-AB5E-6B438DB45270}">
   <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="42.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1764,13 +1755,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1785,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1796,16 +1787,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1816,16 +1807,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1836,19 +1827,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G4" t="s">
-        <v>112</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1859,19 +1850,19 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E5" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G5" t="s">
-        <v>110</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1882,19 +1873,19 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1905,19 +1896,19 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1928,19 +1919,19 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1951,19 +1942,19 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1974,22 +1965,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>194</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H10" t="s">
-        <v>379</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2000,22 +1985,19 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D11" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G11" t="s">
-        <v>234</v>
-      </c>
-      <c r="H11" t="s">
-        <v>379</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2026,19 +2008,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>232</v>
+        <v>452</v>
       </c>
       <c r="D12" t="s">
-        <v>219</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>233</v>
-      </c>
-      <c r="H12" t="s">
-        <v>379</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -2049,10 +2022,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D13" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -2063,10 +2036,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D14" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -2077,10 +2050,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D15" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2091,10 +2064,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D16" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2105,19 +2078,19 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D17" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E17" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F17" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G17" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2128,19 +2101,19 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D18" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>191</v>
+      </c>
+      <c r="G18" t="s">
         <v>239</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" t="s">
-        <v>195</v>
-      </c>
-      <c r="G18" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -2151,19 +2124,19 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D19" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G19" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -2174,19 +2147,19 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D20" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -2197,19 +2170,19 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D21" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2220,19 +2193,19 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D22" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -2243,19 +2216,19 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D23" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G23" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -2266,19 +2239,19 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D24" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G24" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -2289,19 +2262,19 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D25" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G25" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -2312,19 +2285,19 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D26" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G26" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2335,19 +2308,19 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D27" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G27" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -2358,19 +2331,19 @@
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D28" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G28" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -2381,10 +2354,10 @@
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D29" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -2395,10 +2368,10 @@
         <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D30" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -2409,19 +2382,19 @@
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D31" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G31" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -2432,19 +2405,19 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D32" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F32" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G32" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -2455,19 +2428,19 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D33" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G33" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2478,19 +2451,19 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D34" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G34" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -2501,19 +2474,19 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D35" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F35" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G35" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -2524,19 +2497,19 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D36" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F36" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G36" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -2547,19 +2520,19 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D37" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G37" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -2570,19 +2543,19 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D38" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G38" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -2593,19 +2566,19 @@
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D39" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G39" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -2616,19 +2589,19 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D40" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F40" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G40" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -2639,19 +2612,19 @@
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D41" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G41" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -2662,10 +2635,10 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D42" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -2676,10 +2649,10 @@
         <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D43" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -2690,10 +2663,10 @@
         <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D44" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -2704,10 +2677,10 @@
         <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D45" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -2718,10 +2691,10 @@
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D46" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -2732,19 +2705,19 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D47" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G47" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -2755,19 +2728,19 @@
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D48" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G48" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -2778,19 +2751,19 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D49" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F49" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G49" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -2801,19 +2774,19 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D50" t="s">
+        <v>263</v>
+      </c>
+      <c r="E50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" t="s">
+        <v>197</v>
+      </c>
+      <c r="G50" t="s">
         <v>269</v>
-      </c>
-      <c r="E50" t="s">
-        <v>37</v>
-      </c>
-      <c r="F50" t="s">
-        <v>201</v>
-      </c>
-      <c r="G50" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -2824,19 +2797,19 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="D51" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G51" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -2847,19 +2820,19 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D52" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G52" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -2870,19 +2843,19 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D53" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F53" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G53" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -2893,16 +2866,16 @@
         <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D54" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -2913,22 +2886,22 @@
         <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D55" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="E55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F55" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G55" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H55" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -2939,19 +2912,19 @@
         <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D56" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="E56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F56" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G56" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -2962,19 +2935,19 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D57" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="E57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F57" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G57" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -2985,10 +2958,10 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D58" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -2999,10 +2972,10 @@
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D59" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -3013,10 +2986,10 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D60" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -3027,10 +3000,10 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D61" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -3041,19 +3014,19 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D62" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F62" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G62" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -3064,19 +3037,19 @@
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D63" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F63" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G63" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -3087,19 +3060,19 @@
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D64" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G64" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -3110,19 +3083,19 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D65" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G65" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -3133,19 +3106,19 @@
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D66" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G66" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -3156,19 +3129,19 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D67" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F67" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G67" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -3179,19 +3152,19 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D68" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F68" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G68" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -3202,19 +3175,19 @@
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D69" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F69" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G69" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -3225,19 +3198,19 @@
         <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D70" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F70" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G70" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -3248,19 +3221,19 @@
         <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D71" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F71" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G71" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -3271,10 +3244,10 @@
         <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D72" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -3285,10 +3258,10 @@
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D73" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -3299,10 +3272,10 @@
         <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D74" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -3313,10 +3286,10 @@
         <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D75" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -3327,10 +3300,10 @@
         <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D76" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -3341,19 +3314,19 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D77" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F77" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G77" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -3364,19 +3337,19 @@
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D78" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F78" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G78" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -3387,19 +3360,19 @@
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D79" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E79" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F79" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G79" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -3410,19 +3383,19 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D80" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E80" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F80" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G80" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -3433,19 +3406,19 @@
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D81" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E81" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F81" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G81" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -3456,19 +3429,19 @@
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D82" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F82" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G82" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -3479,19 +3452,19 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D83" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E83" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F83" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G83" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -3502,19 +3475,19 @@
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D84" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F84" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G84" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -3525,19 +3498,19 @@
         <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D85" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E85" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F85" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G85" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -3548,19 +3521,19 @@
         <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D86" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E86" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F86" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G86" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -3571,19 +3544,19 @@
         <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D87" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F87" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G87" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -3594,19 +3567,19 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D88" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E88" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F88" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G88" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -3617,19 +3590,19 @@
         <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D89" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E89" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F89" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G89" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -3640,19 +3613,19 @@
         <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D90" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F90" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G90" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -3663,7 +3636,10 @@
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>442</v>
+        <v>435</v>
+      </c>
+      <c r="D91" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -3674,19 +3650,19 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D92" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E92" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F92" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G92" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -3697,19 +3673,19 @@
         <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D93" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E93" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F93" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G93" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -3720,19 +3696,19 @@
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D94" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E94" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F94" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G94" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -3743,19 +3719,19 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D95" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E95" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F95" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G95" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -3766,10 +3742,10 @@
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D96" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -3780,10 +3756,10 @@
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D97" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -3794,10 +3770,10 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D98" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -3808,10 +3784,10 @@
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D99" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -3822,10 +3798,10 @@
         <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D100" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -3836,10 +3812,10 @@
         <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D101" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -3850,10 +3826,10 @@
         <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D102" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -3864,10 +3840,10 @@
         <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="D103" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -3878,10 +3854,10 @@
         <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D104" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -3892,10 +3868,10 @@
         <v>14</v>
       </c>
       <c r="C105" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D105" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -3906,10 +3882,10 @@
         <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D106" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -3920,19 +3896,19 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D107" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F107" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G107" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -3943,19 +3919,19 @@
         <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D108" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E108" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F108" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G108" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -3966,22 +3942,22 @@
         <v>3</v>
       </c>
       <c r="C109" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D109" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E109" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F109" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G109" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="H109" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -3992,22 +3968,22 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D110" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E110" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F110" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G110" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H110" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
@@ -4018,19 +3994,19 @@
         <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D111" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E111" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G111" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -4041,19 +4017,19 @@
         <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D112" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E112" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F112" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G112" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -4064,19 +4040,19 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D113" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E113" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F113" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G113" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -4087,19 +4063,19 @@
         <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D114" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E114" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F114" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G114" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -4110,19 +4086,19 @@
         <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D115" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E115" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F115" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G115" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -4133,19 +4109,19 @@
         <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="D116" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E116" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F116" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G116" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -4156,22 +4132,22 @@
         <v>11</v>
       </c>
       <c r="C117" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D117" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F117" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G117" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="I117" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -4182,19 +4158,19 @@
         <v>12</v>
       </c>
       <c r="C118" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D118" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E118" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F118" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G118" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -4205,19 +4181,19 @@
         <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D119" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E119" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F119" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G119" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -4228,10 +4204,10 @@
         <v>14</v>
       </c>
       <c r="C120" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D120" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -4242,10 +4218,10 @@
         <v>15</v>
       </c>
       <c r="C121" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D121" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -4256,19 +4232,19 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D122" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E122" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F122" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G122" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -4279,19 +4255,19 @@
         <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="D123" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E123" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F123" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G123" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -4302,19 +4278,19 @@
         <v>3</v>
       </c>
       <c r="C124" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D124" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E124" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F124" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G124" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -4325,19 +4301,19 @@
         <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D125" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E125" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F125" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G125" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -4348,19 +4324,19 @@
         <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D126" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E126" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F126" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G126" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -4371,19 +4347,19 @@
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D127" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E127" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F127" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G127" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -4394,19 +4370,19 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D128" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E128" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F128" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G128" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -4417,19 +4393,19 @@
         <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D129" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E129" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F129" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G129" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -4440,19 +4416,19 @@
         <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D130" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E130" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F130" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G130" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -4463,10 +4439,10 @@
         <v>10</v>
       </c>
       <c r="C131" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D131" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -4477,10 +4453,10 @@
         <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D132" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -4491,10 +4467,10 @@
         <v>12</v>
       </c>
       <c r="C133" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D133" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
@@ -4505,10 +4481,10 @@
         <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D134" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -4519,10 +4495,10 @@
         <v>14</v>
       </c>
       <c r="C135" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D135" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -4533,10 +4509,10 @@
         <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="D136" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -4547,22 +4523,22 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D137" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E137" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F137" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G137" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H137" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -4573,22 +4549,22 @@
         <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D138" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E138" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F138" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G138" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H138" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -4599,22 +4575,22 @@
         <v>3</v>
       </c>
       <c r="C139" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D139" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E139" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F139" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G139" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H139" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -4625,22 +4601,22 @@
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D140" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E140" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F140" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G140" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="H140" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -4651,22 +4627,22 @@
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D141" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E141" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F141" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G141" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H141" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -4677,22 +4653,22 @@
         <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D142" t="s">
+        <v>333</v>
+      </c>
+      <c r="E142" t="s">
+        <v>100</v>
+      </c>
+      <c r="F142" t="s">
+        <v>196</v>
+      </c>
+      <c r="G142" t="s">
         <v>339</v>
       </c>
-      <c r="E142" t="s">
-        <v>101</v>
-      </c>
-      <c r="F142" t="s">
-        <v>200</v>
-      </c>
-      <c r="G142" t="s">
-        <v>345</v>
-      </c>
       <c r="H142" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -4703,22 +4679,22 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D143" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E143" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F143" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G143" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H143" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -4729,22 +4705,22 @@
         <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D144" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E144" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F144" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G144" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H144" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -4755,22 +4731,22 @@
         <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D145" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E145" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F145" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G145" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H145" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -4781,22 +4757,22 @@
         <v>10</v>
       </c>
       <c r="C146" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D146" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E146" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F146" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G146" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H146" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -4807,22 +4783,22 @@
         <v>11</v>
       </c>
       <c r="C147" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D147" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E147" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F147" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G147" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H147" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
@@ -4833,22 +4809,22 @@
         <v>12</v>
       </c>
       <c r="C148" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D148" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E148" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F148" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G148" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H148" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -4859,22 +4835,22 @@
         <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D149" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E149" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F149" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G149" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H149" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -4885,22 +4861,22 @@
         <v>14</v>
       </c>
       <c r="C150" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D150" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E150" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F150" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G150" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="H150" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -4911,10 +4887,10 @@
         <v>15</v>
       </c>
       <c r="C151" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D151" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -4925,22 +4901,22 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D152" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E152" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F152" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G152" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H152" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -4951,22 +4927,22 @@
         <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D153" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E153" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F153" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G153" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="H153" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -4977,22 +4953,22 @@
         <v>3</v>
       </c>
       <c r="C154" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D154" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G154" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H154" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -5003,22 +4979,22 @@
         <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="D155" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G155" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H155" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -5029,22 +5005,22 @@
         <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="D156" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E156" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F156" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G156" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H156" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -5055,22 +5031,22 @@
         <v>6</v>
       </c>
       <c r="C157" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="D157" t="s">
+        <v>362</v>
+      </c>
+      <c r="E157" t="s">
+        <v>23</v>
+      </c>
+      <c r="F157" t="s">
+        <v>197</v>
+      </c>
+      <c r="G157" t="s">
         <v>368</v>
       </c>
-      <c r="E157" t="s">
-        <v>24</v>
-      </c>
-      <c r="F157" t="s">
-        <v>201</v>
-      </c>
-      <c r="G157" t="s">
-        <v>374</v>
-      </c>
       <c r="H157" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
@@ -5081,10 +5057,10 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D158" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -5095,10 +5071,10 @@
         <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D159" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -5109,10 +5085,10 @@
         <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D160" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -5123,10 +5099,10 @@
         <v>10</v>
       </c>
       <c r="C161" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="D161" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -5137,10 +5113,10 @@
         <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D162" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -5151,10 +5127,10 @@
         <v>12</v>
       </c>
       <c r="C163" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D163" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -5165,10 +5141,10 @@
         <v>13</v>
       </c>
       <c r="C164" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D164" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -5179,10 +5155,10 @@
         <v>14</v>
       </c>
       <c r="C165" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="D165" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -5193,10 +5169,10 @@
         <v>15</v>
       </c>
       <c r="C166" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D166" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/dev/r3PGmix_info.xlsx
+++ b/dev/r3PGmix_info.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trotsiuk/Documents/software/r3PG/r3PGmix/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414F68FE-2FD1-DB40-9D0A-9822DE42E821}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACC7F63-5428-5442-A241-49493EB1D0FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27280" yWindow="460" windowWidth="18020" windowHeight="28340" xr2:uid="{9ECC47CC-383C-4247-B9D3-046711674009}"/>
+    <workbookView xWindow="28180" yWindow="460" windowWidth="18020" windowHeight="28340" xr2:uid="{9ECC47CC-383C-4247-B9D3-046711674009}"/>
   </bookViews>
   <sheets>
     <sheet name="var_names" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="447">
   <si>
     <t>description</t>
   </si>
@@ -66,15 +67,6 @@
     <t>Stand volume excluding branch &amp; bark</t>
   </si>
   <si>
-    <t>Cumulative extracted volume (by thinning)</t>
-  </si>
-  <si>
-    <t>Total cumulative volume (stand volume + extracted volume +  mortality)</t>
-  </si>
-  <si>
-    <t>Volume extracted during the most recent thinning event</t>
-  </si>
-  <si>
     <t>Mean DBH</t>
   </si>
   <si>
@@ -753,30 +745,9 @@
     <t>Basal area</t>
   </si>
   <si>
-    <t>volume_stand</t>
-  </si>
-  <si>
     <t>Stand volume</t>
   </si>
   <si>
-    <t>volume_extract</t>
-  </si>
-  <si>
-    <t>Extracted volume</t>
-  </si>
-  <si>
-    <t>volume_cumul</t>
-  </si>
-  <si>
-    <t>Total cumulative volume</t>
-  </si>
-  <si>
-    <t>volume_extract_last</t>
-  </si>
-  <si>
-    <t>Latest extracted volume</t>
-  </si>
-  <si>
     <t>volume_mai</t>
   </si>
   <si>
@@ -1384,6 +1355,18 @@
   </si>
   <si>
     <t>var_1_11</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>var_2_10</t>
+  </si>
+  <si>
+    <t>var_2_11</t>
+  </si>
+  <si>
+    <t>var_2_12</t>
   </si>
 </sst>
 </file>
@@ -1738,7 +1721,7 @@
   <dimension ref="A1:I166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="42.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1755,13 +1738,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1776,7 +1759,7 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1787,16 +1770,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1807,16 +1790,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1827,19 +1810,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G4" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1850,19 +1833,19 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E5" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G5" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1873,19 +1856,19 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G6" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1896,19 +1879,19 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="D7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1919,19 +1902,19 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1942,19 +1925,19 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1965,16 +1948,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1985,19 +1968,19 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2008,10 +1991,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="D12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -2022,10 +2005,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D13" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -2036,10 +2019,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -2050,10 +2033,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2064,10 +2047,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="D16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2078,19 +2061,19 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E17" t="s">
+        <v>232</v>
+      </c>
+      <c r="F17" t="s">
+        <v>233</v>
+      </c>
+      <c r="G17" t="s">
         <v>234</v>
-      </c>
-      <c r="D17" t="s">
-        <v>233</v>
-      </c>
-      <c r="E17" t="s">
-        <v>235</v>
-      </c>
-      <c r="F17" t="s">
-        <v>236</v>
-      </c>
-      <c r="G17" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2101,19 +2084,19 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -2124,19 +2107,19 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -2147,19 +2130,19 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="D20" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -2170,19 +2153,19 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2193,19 +2176,19 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="D22" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -2216,19 +2199,19 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G23" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -2239,19 +2222,19 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>242</v>
+        <v>443</v>
       </c>
       <c r="D24" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G24" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -2262,19 +2245,19 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D25" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G25" t="s">
-        <v>245</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -2285,19 +2268,10 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>246</v>
+        <v>444</v>
       </c>
       <c r="D26" t="s">
-        <v>233</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" t="s">
-        <v>193</v>
-      </c>
-      <c r="G26" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2308,19 +2282,10 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>248</v>
+        <v>445</v>
       </c>
       <c r="D27" t="s">
-        <v>233</v>
-      </c>
-      <c r="E27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" t="s">
-        <v>193</v>
-      </c>
-      <c r="G27" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -2331,19 +2296,10 @@
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>250</v>
+        <v>446</v>
       </c>
       <c r="D28" t="s">
-        <v>233</v>
-      </c>
-      <c r="E28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" t="s">
-        <v>195</v>
-      </c>
-      <c r="G28" t="s">
-        <v>111</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -2354,10 +2310,10 @@
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D29" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -2368,10 +2324,10 @@
         <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="D30" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -2382,19 +2338,10 @@
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D31" t="s">
-        <v>233</v>
-      </c>
-      <c r="E31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" t="s">
-        <v>196</v>
-      </c>
-      <c r="G31" t="s">
-        <v>114</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -2405,19 +2352,19 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D32" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G32" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -2428,19 +2375,19 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="D33" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G33" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2451,19 +2398,19 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D34" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F34" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G34" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -2474,19 +2421,19 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D35" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F35" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -2497,19 +2444,19 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D36" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E36" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F36" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G36" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -2520,19 +2467,19 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D37" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -2543,19 +2490,19 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D38" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F38" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G38" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -2566,19 +2513,19 @@
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D39" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F39" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G39" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -2589,19 +2536,19 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D40" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G40" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -2612,19 +2559,19 @@
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D41" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E41" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G41" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -2635,10 +2582,10 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="D42" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -2649,10 +2596,10 @@
         <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D43" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -2663,10 +2610,10 @@
         <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D44" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -2677,10 +2624,10 @@
         <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="D45" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -2691,10 +2638,10 @@
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D46" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -2705,19 +2652,19 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D47" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F47" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G47" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -2728,19 +2675,19 @@
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D48" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F48" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G48" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -2751,19 +2698,19 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D49" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="E49" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F49" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G49" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -2774,19 +2721,19 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="D50" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G50" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -2797,19 +2744,19 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D51" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="E51" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F51" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G51" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -2820,19 +2767,19 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D52" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="E52" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F52" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G52" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -2843,19 +2790,19 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D53" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="E53" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F53" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G53" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -2866,16 +2813,16 @@
         <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D54" t="s">
+        <v>253</v>
+      </c>
+      <c r="E54" t="s">
+        <v>37</v>
+      </c>
+      <c r="G54" t="s">
         <v>263</v>
-      </c>
-      <c r="E54" t="s">
-        <v>40</v>
-      </c>
-      <c r="G54" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -2886,22 +2833,22 @@
         <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D55" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="E55" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F55" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G55" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="H55" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -2912,19 +2859,19 @@
         <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="D56" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="E56" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F56" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G56" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -2935,19 +2882,19 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="D57" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="E57" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F57" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G57" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -2958,10 +2905,10 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="D58" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -2972,10 +2919,10 @@
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="D59" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -2986,10 +2933,10 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D60" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -3000,10 +2947,10 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="D61" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -3014,19 +2961,19 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="D62" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E62" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F62" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G62" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -3037,19 +2984,19 @@
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D63" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E63" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F63" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G63" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -3060,19 +3007,19 @@
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D64" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F64" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G64" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -3083,19 +3030,19 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D65" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G65" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -3106,19 +3053,19 @@
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D66" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F66" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G66" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -3129,19 +3076,19 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D67" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E67" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G67" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -3152,19 +3099,19 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D68" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E68" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G68" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -3175,19 +3122,19 @@
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D69" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E69" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G69" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -3198,19 +3145,19 @@
         <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D70" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E70" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F70" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G70" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -3221,19 +3168,19 @@
         <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D71" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E71" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F71" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G71" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -3244,10 +3191,10 @@
         <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="D72" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -3258,10 +3205,10 @@
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D73" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -3272,10 +3219,10 @@
         <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D74" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -3286,10 +3233,10 @@
         <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D75" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -3300,10 +3247,10 @@
         <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D76" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -3314,19 +3261,19 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D77" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E77" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F77" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G77" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -3337,19 +3284,19 @@
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D78" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E78" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F78" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G78" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -3360,19 +3307,19 @@
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D79" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E79" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F79" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G79" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -3383,19 +3330,19 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D80" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E80" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F80" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G80" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -3406,19 +3353,19 @@
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D81" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E81" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F81" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G81" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -3429,19 +3376,19 @@
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D82" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E82" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F82" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G82" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -3452,19 +3399,19 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D83" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E83" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F83" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G83" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -3475,19 +3422,19 @@
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="D84" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E84" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F84" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G84" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -3498,19 +3445,19 @@
         <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D85" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E85" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F85" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G85" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -3521,19 +3468,19 @@
         <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D86" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E86" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F86" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G86" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -3544,19 +3491,19 @@
         <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D87" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E87" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F87" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G87" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -3567,19 +3514,19 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D88" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E88" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F88" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G88" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -3590,19 +3537,19 @@
         <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D89" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E89" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F89" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G89" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -3613,19 +3560,19 @@
         <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D90" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E90" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G90" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -3636,10 +3583,10 @@
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="D91" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -3650,19 +3597,19 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="D92" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E92" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F92" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G92" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -3673,19 +3620,19 @@
         <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D93" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E93" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F93" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G93" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -3696,19 +3643,19 @@
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D94" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E94" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F94" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G94" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -3719,19 +3666,19 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D95" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E95" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F95" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G95" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -3742,10 +3689,10 @@
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D96" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -3756,10 +3703,10 @@
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="D97" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -3770,10 +3717,10 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D98" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -3784,10 +3731,10 @@
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D99" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -3798,10 +3745,10 @@
         <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D100" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -3812,10 +3759,10 @@
         <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="D101" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -3826,10 +3773,10 @@
         <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="D102" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -3840,10 +3787,10 @@
         <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="D103" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -3854,10 +3801,10 @@
         <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="D104" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -3868,10 +3815,10 @@
         <v>14</v>
       </c>
       <c r="C105" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="D105" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -3882,10 +3829,10 @@
         <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="D106" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -3896,19 +3843,19 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D107" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E107" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F107" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G107" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -3919,19 +3866,19 @@
         <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="D108" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E108" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F108" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G108" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -3942,22 +3889,22 @@
         <v>3</v>
       </c>
       <c r="C109" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="D109" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E109" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F109" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G109" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="H109" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -3968,22 +3915,22 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D110" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E110" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F110" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G110" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="H110" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
@@ -3994,19 +3941,19 @@
         <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="D111" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E111" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F111" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G111" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -4017,19 +3964,19 @@
         <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="D112" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E112" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F112" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G112" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -4040,19 +3987,19 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D113" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E113" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F113" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G113" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -4063,19 +4010,19 @@
         <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="D114" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E114" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F114" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G114" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -4086,19 +4033,19 @@
         <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D115" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E115" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F115" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G115" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -4109,19 +4056,19 @@
         <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="D116" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E116" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F116" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G116" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -4132,22 +4079,22 @@
         <v>11</v>
       </c>
       <c r="C117" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D117" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E117" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F117" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G117" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="I117" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -4158,19 +4105,19 @@
         <v>12</v>
       </c>
       <c r="C118" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D118" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E118" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F118" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G118" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -4181,19 +4128,19 @@
         <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="D119" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E119" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F119" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G119" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -4204,10 +4151,10 @@
         <v>14</v>
       </c>
       <c r="C120" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D120" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -4218,10 +4165,10 @@
         <v>15</v>
       </c>
       <c r="C121" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="D121" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -4232,19 +4179,19 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="D122" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E122" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F122" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G122" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -4255,19 +4202,19 @@
         <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="D123" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E123" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F123" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G123" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -4278,19 +4225,19 @@
         <v>3</v>
       </c>
       <c r="C124" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D124" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E124" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F124" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G124" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -4301,19 +4248,19 @@
         <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D125" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E125" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F125" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G125" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -4324,19 +4271,19 @@
         <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="D126" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E126" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F126" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G126" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -4347,19 +4294,19 @@
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D127" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E127" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F127" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G127" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -4370,19 +4317,19 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="D128" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E128" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F128" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G128" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -4393,19 +4340,19 @@
         <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="D129" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E129" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F129" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G129" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -4416,19 +4363,19 @@
         <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="D130" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E130" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F130" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G130" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -4439,10 +4386,10 @@
         <v>10</v>
       </c>
       <c r="C131" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D131" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -4453,10 +4400,10 @@
         <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D132" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -4467,10 +4414,10 @@
         <v>12</v>
       </c>
       <c r="C133" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="D133" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
@@ -4481,10 +4428,10 @@
         <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="D134" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -4495,10 +4442,10 @@
         <v>14</v>
       </c>
       <c r="C135" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="D135" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -4509,10 +4456,10 @@
         <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="D136" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -4523,22 +4470,22 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="D137" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="E137" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F137" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G137" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="H137" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -4549,22 +4496,22 @@
         <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D138" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="E138" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F138" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G138" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="H138" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -4575,22 +4522,22 @@
         <v>3</v>
       </c>
       <c r="C139" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D139" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="E139" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F139" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G139" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="H139" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -4601,22 +4548,22 @@
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="D140" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="E140" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F140" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G140" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="H140" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -4627,22 +4574,22 @@
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="D141" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="E141" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F141" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G141" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="H141" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -4653,22 +4600,22 @@
         <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D142" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="E142" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F142" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G142" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="H142" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -4679,22 +4626,22 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D143" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="E143" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F143" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G143" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="H143" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -4705,22 +4652,22 @@
         <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="D144" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="E144" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F144" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G144" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="H144" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -4731,22 +4678,22 @@
         <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D145" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="E145" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F145" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G145" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H145" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -4757,22 +4704,22 @@
         <v>10</v>
       </c>
       <c r="C146" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="D146" t="s">
+        <v>323</v>
+      </c>
+      <c r="E146" t="s">
+        <v>101</v>
+      </c>
+      <c r="F146" t="s">
+        <v>197</v>
+      </c>
+      <c r="G146" t="s">
         <v>333</v>
       </c>
-      <c r="E146" t="s">
-        <v>104</v>
-      </c>
-      <c r="F146" t="s">
-        <v>200</v>
-      </c>
-      <c r="G146" t="s">
-        <v>343</v>
-      </c>
       <c r="H146" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -4783,22 +4730,22 @@
         <v>11</v>
       </c>
       <c r="C147" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D147" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="E147" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F147" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G147" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="H147" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
@@ -4809,22 +4756,22 @@
         <v>12</v>
       </c>
       <c r="C148" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="D148" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="E148" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F148" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G148" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="H148" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -4835,22 +4782,22 @@
         <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D149" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="E149" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F149" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G149" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="H149" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -4861,22 +4808,22 @@
         <v>14</v>
       </c>
       <c r="C150" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="D150" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="E150" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F150" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G150" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="H150" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -4887,10 +4834,10 @@
         <v>15</v>
       </c>
       <c r="C151" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="D151" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -4901,22 +4848,22 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="D152" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="E152" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F152" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G152" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="H152" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -4927,22 +4874,22 @@
         <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="D153" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="E153" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F153" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G153" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="H153" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -4953,22 +4900,22 @@
         <v>3</v>
       </c>
       <c r="C154" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="D154" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="E154" t="s">
         <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G154" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="H154" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -4979,22 +4926,22 @@
         <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="D155" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="E155" t="s">
         <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G155" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="H155" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -5005,22 +4952,22 @@
         <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="D156" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="E156" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F156" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G156" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H156" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -5031,22 +4978,22 @@
         <v>6</v>
       </c>
       <c r="C157" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="D157" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="E157" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F157" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G157" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="H157" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
@@ -5057,10 +5004,10 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="D158" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -5071,10 +5018,10 @@
         <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D159" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -5085,10 +5032,10 @@
         <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="D160" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -5099,10 +5046,10 @@
         <v>10</v>
       </c>
       <c r="C161" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="D161" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -5113,10 +5060,10 @@
         <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D162" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -5127,10 +5074,10 @@
         <v>12</v>
       </c>
       <c r="C163" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="D163" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -5141,10 +5088,10 @@
         <v>13</v>
       </c>
       <c r="C164" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="D164" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -5155,10 +5102,10 @@
         <v>14</v>
       </c>
       <c r="C165" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="D165" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -5169,10 +5116,316 @@
         <v>15</v>
       </c>
       <c r="C166" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D166" t="s">
-        <v>362</v>
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12872662-7795-8E49-8B63-4C56A42E1535}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>430</v>
+      </c>
+      <c r="D5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>443</v>
+      </c>
+      <c r="D8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>368</v>
+      </c>
+      <c r="D13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>369</v>
+      </c>
+      <c r="D14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>370</v>
+      </c>
+      <c r="D15" t="s">
+        <v>230</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>193</v>
+      </c>
+      <c r="G15" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/dev/r3PGmix_info.xlsx
+++ b/dev/r3PGmix_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trotsiuk/Documents/software/r3PG/r3PGmix/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACC7F63-5428-5442-A241-49493EB1D0FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19351E6-E4F6-9B4F-A50E-4DFCC729D947}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28180" yWindow="460" windowWidth="18020" windowHeight="28340" xr2:uid="{9ECC47CC-383C-4247-B9D3-046711674009}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="405">
   <si>
     <t>description</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Mean crown diameter</t>
   </si>
   <si>
-    <t>Mean individual tree leaf area to crown surface area ratio</t>
-  </si>
-  <si>
     <t>Number of crop trees (x)</t>
   </si>
   <si>
@@ -127,12 +124,6 @@
     <t>Root biomass</t>
   </si>
   <si>
-    <t>Accumulated litterfall</t>
-  </si>
-  <si>
-    <t>Total biomass</t>
-  </si>
-  <si>
     <t>Mean stem biomass per tree</t>
   </si>
   <si>
@@ -190,18 +181,6 @@
     <t>Light-use efficiency based on GPP</t>
   </si>
   <si>
-    <t>Light-use efficiency based on stem biomass (increment in WS)</t>
-  </si>
-  <si>
-    <t>Light-use efficiency based on NPP</t>
-  </si>
-  <si>
-    <t>Stem volume increment in current period</t>
-  </si>
-  <si>
-    <t>FR modifier of root biomass allocation</t>
-  </si>
-  <si>
     <t>Fraction of NPP allocated to roots</t>
   </si>
   <si>
@@ -214,15 +193,9 @@
     <t>Ratio of foliage to stem biomass allocation</t>
   </si>
   <si>
-    <t>Current leaf litterfall rate</t>
-  </si>
-  <si>
     <t>Litter fall in current period</t>
   </si>
   <si>
-    <t>The NPP that must be assimilated before further any growth (for decidous species)</t>
-  </si>
-  <si>
     <t>Stem mortality</t>
   </si>
   <si>
@@ -292,18 +265,6 @@
     <t>Inter-cellular CO2 concentration</t>
   </si>
   <si>
-    <t>The ratio of diffusivities of CO2 and water vapor in air</t>
-  </si>
-  <si>
-    <t>d13C difference of modeled tissue and new photosynthate</t>
-  </si>
-  <si>
-    <t>Fractionation again 13C in diffusion</t>
-  </si>
-  <si>
-    <t>Enzymatic fractionation by Rubisco</t>
-  </si>
-  <si>
     <t>Weibull scale parameter of avDBH distribution</t>
   </si>
   <si>
@@ -361,9 +322,6 @@
     <t>LCL</t>
   </si>
   <si>
-    <t>treeLAtoSAratio</t>
-  </si>
-  <si>
     <t>CropTrees</t>
   </si>
   <si>
@@ -451,15 +409,6 @@
     <t>Epsilon</t>
   </si>
   <si>
-    <t>StemEpsilon</t>
-  </si>
-  <si>
-    <t>NPPEpsilon</t>
-  </si>
-  <si>
-    <t>CVI</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
@@ -475,12 +424,6 @@
     <t>pFS</t>
   </si>
   <si>
-    <t>gammaF</t>
-  </si>
-  <si>
-    <t>NPPdebt</t>
-  </si>
-  <si>
     <t>wSmax</t>
   </si>
   <si>
@@ -520,18 +463,6 @@
     <t>InterCiPPM</t>
   </si>
   <si>
-    <t>RGcGW</t>
-  </si>
-  <si>
-    <t>D13CTissueDif</t>
-  </si>
-  <si>
-    <t>aFracDiffu</t>
-  </si>
-  <si>
-    <t>bFracRubi</t>
-  </si>
-  <si>
     <t>Dweibullscale</t>
   </si>
   <si>
@@ -769,9 +700,6 @@
     <t>lai</t>
   </si>
   <si>
-    <t>layer</t>
-  </si>
-  <si>
     <t>lai_above</t>
   </si>
   <si>
@@ -805,12 +733,6 @@
     <t>wood_density</t>
   </si>
   <si>
-    <t>Total litter</t>
-  </si>
-  <si>
-    <t>Total DM</t>
-  </si>
-  <si>
     <t>Mean stem mass</t>
   </si>
   <si>
@@ -829,9 +751,6 @@
     <t>Root DM</t>
   </si>
   <si>
-    <t>biom_bb_fract</t>
-  </si>
-  <si>
     <t>canopy_vol_frac</t>
   </si>
   <si>
@@ -889,21 +808,9 @@
     <t>epsilon_gpp</t>
   </si>
   <si>
-    <t>epsilon_sb</t>
-  </si>
-  <si>
-    <t>volume_incr</t>
-  </si>
-  <si>
-    <t>Litter fall rate</t>
-  </si>
-  <si>
     <t>Litter fall</t>
   </si>
   <si>
-    <t>f_biom_root</t>
-  </si>
-  <si>
     <t>npp_fract_root</t>
   </si>
   <si>
@@ -913,12 +820,6 @@
     <t>npp_fract_foliage</t>
   </si>
   <si>
-    <t>npp_foliage_stem_rat</t>
-  </si>
-  <si>
-    <t>litter_rate</t>
-  </si>
-  <si>
     <t>Self thinning</t>
   </si>
   <si>
@@ -982,9 +883,6 @@
     <t>wue_transp</t>
   </si>
   <si>
-    <t>transp</t>
-  </si>
-  <si>
     <t>asw</t>
   </si>
   <si>
@@ -1042,48 +940,6 @@
     <t>Relative bias in crown diameter from using mean dbh</t>
   </si>
   <si>
-    <t>weib_scale_dbh</t>
-  </si>
-  <si>
-    <t>weib_shape_dbh</t>
-  </si>
-  <si>
-    <t>weib_locat_dbh</t>
-  </si>
-  <si>
-    <t>weib_scale_biomas</t>
-  </si>
-  <si>
-    <t>weib_shape_biomas</t>
-  </si>
-  <si>
-    <t>weib_locat_biomas</t>
-  </si>
-  <si>
-    <t>bias_rel_biomas</t>
-  </si>
-  <si>
-    <t>bias_rel_dbh_pfs</t>
-  </si>
-  <si>
-    <t>bias_rel_dbh_heigh</t>
-  </si>
-  <si>
-    <t>bias_rel_dbh_ba</t>
-  </si>
-  <si>
-    <t>bias_rel_dbh_cd</t>
-  </si>
-  <si>
-    <t>bias_rel_dbh_cl</t>
-  </si>
-  <si>
-    <t>cv_biomass</t>
-  </si>
-  <si>
-    <t>slope_cv_dbh_age</t>
-  </si>
-  <si>
     <t>crop_trees</t>
   </si>
   <si>
@@ -1141,9 +997,6 @@
     <t>var_2_15</t>
   </si>
   <si>
-    <t>var_3_2</t>
-  </si>
-  <si>
     <t>var_3_11</t>
   </si>
   <si>
@@ -1306,9 +1159,6 @@
     <t>var_6_15</t>
   </si>
   <si>
-    <t>biom_foliage_debt</t>
-  </si>
-  <si>
     <t>evapo_transp</t>
   </si>
   <si>
@@ -1327,15 +1177,6 @@
     <t>transp_veg</t>
   </si>
   <si>
-    <t>var_4_4</t>
-  </si>
-  <si>
-    <t>var_4_5</t>
-  </si>
-  <si>
-    <t>epsilon_npp</t>
-  </si>
-  <si>
     <t>Gc_mol</t>
   </si>
   <si>
@@ -1367,6 +1208,39 @@
   </si>
   <si>
     <t>var_2_12</t>
+  </si>
+  <si>
+    <t>canopy_cover</t>
+  </si>
+  <si>
+    <t>layer_id</t>
+  </si>
+  <si>
+    <t>var_4_10</t>
+  </si>
+  <si>
+    <t>var_4_11</t>
+  </si>
+  <si>
+    <t>var_4_8</t>
+  </si>
+  <si>
+    <t>var_4_9</t>
+  </si>
+  <si>
+    <t>fracBB</t>
+  </si>
+  <si>
+    <t>var_6_14</t>
+  </si>
+  <si>
+    <t>var_6_12</t>
+  </si>
+  <si>
+    <t>var_6_13</t>
+  </si>
+  <si>
+    <t>var_6_11</t>
   </si>
 </sst>
 </file>
@@ -1720,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EDA796-FB5E-0A42-AB5E-6B438DB45270}">
   <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="42.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1738,13 +1612,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="C1" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1759,7 +1633,7 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1770,16 +1644,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="D2" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="E2" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1790,16 +1664,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="E3" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="F3" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1810,19 +1684,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="G4" t="s">
-        <v>441</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1833,19 +1707,19 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="E5" t="s">
-        <v>361</v>
+        <v>313</v>
       </c>
       <c r="F5" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="G5" t="s">
-        <v>439</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1856,19 +1730,19 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="D6" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="G6" t="s">
-        <v>440</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1879,19 +1753,19 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="D7" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="E7" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="F7" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="G7" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1902,19 +1776,19 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="D8" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="G8" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1925,19 +1799,19 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="D9" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="G9" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1948,16 +1822,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="D10" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1968,19 +1842,19 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="G11" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1991,10 +1865,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>442</v>
+        <v>389</v>
       </c>
       <c r="D12" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -2005,10 +1879,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -2019,10 +1893,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="D14" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -2033,10 +1907,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="D15" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2047,10 +1921,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="D16" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2061,19 +1935,19 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="D17" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="E17" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="F17" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="G17" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2084,19 +1958,19 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="D18" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="G18" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -2107,19 +1981,19 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="D19" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="G19" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -2130,16 +2004,16 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>429</v>
+        <v>379</v>
       </c>
       <c r="D20" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
@@ -2153,19 +2027,19 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="D21" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="E21" t="s">
         <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="G21" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2176,19 +2050,19 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="D22" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="E22" t="s">
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="G22" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -2199,19 +2073,19 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="D23" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="E23" t="s">
         <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="G23" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -2222,19 +2096,19 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>443</v>
+        <v>390</v>
       </c>
       <c r="D24" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="G24" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -2245,19 +2119,19 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="D25" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="G25" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -2268,10 +2142,10 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>444</v>
+        <v>391</v>
       </c>
       <c r="D26" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2282,10 +2156,10 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>445</v>
+        <v>392</v>
       </c>
       <c r="D27" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -2296,10 +2170,10 @@
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>446</v>
+        <v>393</v>
       </c>
       <c r="D28" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -2310,10 +2184,10 @@
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="D29" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -2324,10 +2198,10 @@
         <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>369</v>
+        <v>321</v>
       </c>
       <c r="D30" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -2338,10 +2212,10 @@
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="D31" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -2352,19 +2226,19 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="D32" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="G32" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -2375,19 +2249,19 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="D33" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="G33" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2398,19 +2272,19 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="D34" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="E34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F34" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="G34" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -2421,19 +2295,19 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="D35" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="E35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F35" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="G35" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -2444,19 +2318,19 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>247</v>
+        <v>395</v>
       </c>
       <c r="D36" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F36" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="G36" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -2467,19 +2341,19 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="D37" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="E37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F37" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="G37" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -2490,19 +2364,19 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="D38" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="E38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F38" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="G38" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -2513,19 +2387,19 @@
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="D39" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F39" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="G39" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -2536,19 +2410,19 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="D40" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F40" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="G40" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -2559,19 +2433,19 @@
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="D41" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="G41" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -2582,10 +2456,10 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
       <c r="D42" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -2596,10 +2470,10 @@
         <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>373</v>
+        <v>324</v>
       </c>
       <c r="D43" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -2610,10 +2484,10 @@
         <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="D44" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -2624,10 +2498,10 @@
         <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
       <c r="D45" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -2638,10 +2512,10 @@
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="D46" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -2652,19 +2526,19 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="D47" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F47" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="G47" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -2675,22 +2549,22 @@
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="D48" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F48" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="G48" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4</v>
       </c>
@@ -2698,22 +2572,22 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="D49" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="E49" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F49" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="G49" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4</v>
       </c>
@@ -2721,22 +2595,22 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>433</v>
+        <v>233</v>
       </c>
       <c r="D50" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F50" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="G50" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>4</v>
       </c>
@@ -2744,22 +2618,22 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>434</v>
+        <v>234</v>
       </c>
       <c r="D51" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F51" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="G51" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>4</v>
       </c>
@@ -2767,22 +2641,19 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>257</v>
+        <v>400</v>
       </c>
       <c r="D52" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
-      </c>
-      <c r="F52" t="s">
-        <v>199</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>4</v>
       </c>
@@ -2790,22 +2661,22 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
       <c r="D53" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="E53" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F53" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="G53" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>4</v>
       </c>
@@ -2813,19 +2684,13 @@
         <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>267</v>
+        <v>398</v>
       </c>
       <c r="D54" t="s">
-        <v>253</v>
-      </c>
-      <c r="E54" t="s">
-        <v>37</v>
-      </c>
-      <c r="G54" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>4</v>
       </c>
@@ -2833,25 +2698,13 @@
         <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>296</v>
+        <v>399</v>
       </c>
       <c r="D55" t="s">
-        <v>253</v>
-      </c>
-      <c r="E55" t="s">
-        <v>62</v>
-      </c>
-      <c r="F55" t="s">
-        <v>204</v>
-      </c>
-      <c r="G55" t="s">
-        <v>289</v>
-      </c>
-      <c r="H55" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>4</v>
       </c>
@@ -2859,22 +2712,13 @@
         <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="D56" t="s">
-        <v>253</v>
-      </c>
-      <c r="E56" t="s">
-        <v>63</v>
-      </c>
-      <c r="F56" t="s">
-        <v>194</v>
-      </c>
-      <c r="G56" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>4</v>
       </c>
@@ -2882,22 +2726,13 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>426</v>
+        <v>397</v>
       </c>
       <c r="D57" t="s">
-        <v>253</v>
-      </c>
-      <c r="E57" t="s">
-        <v>64</v>
-      </c>
-      <c r="F57" t="s">
-        <v>194</v>
-      </c>
-      <c r="G57" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>4</v>
       </c>
@@ -2905,13 +2740,13 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
       <c r="D58" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>4</v>
       </c>
@@ -2919,13 +2754,13 @@
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="D59" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>4</v>
       </c>
@@ -2933,13 +2768,13 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="D60" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4</v>
       </c>
@@ -2947,13 +2782,13 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="D61" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>5</v>
       </c>
@@ -2961,22 +2796,22 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="D62" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F62" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="G62" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>5</v>
       </c>
@@ -2984,22 +2819,22 @@
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="D63" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="G63" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>5</v>
       </c>
@@ -3007,19 +2842,19 @@
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="D64" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="E64" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F64" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="G64" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -3030,19 +2865,19 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="D65" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="E65" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="G65" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -3053,19 +2888,19 @@
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="D66" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="E66" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="G66" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -3076,19 +2911,19 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="D67" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F67" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="G67" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -3099,19 +2934,19 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="D68" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="G68" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -3122,19 +2957,19 @@
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="D69" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F69" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="G69" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -3145,19 +2980,19 @@
         <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="D70" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="E70" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F70" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="G70" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -3168,19 +3003,19 @@
         <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="D71" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="E71" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="G71" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -3191,10 +3026,10 @@
         <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="D72" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -3205,10 +3040,10 @@
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="D73" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -3219,10 +3054,10 @@
         <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
       <c r="D74" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -3233,10 +3068,10 @@
         <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
       <c r="D75" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -3247,10 +3082,10 @@
         <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="D76" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -3261,19 +3096,19 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="D77" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="E77" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="G77" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -3284,19 +3119,19 @@
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="D78" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="E78" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F78" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="G78" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -3307,19 +3142,19 @@
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="D79" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="E79" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F79" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="G79" t="s">
-        <v>428</v>
+        <v>378</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -3330,19 +3165,19 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D80" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="E80" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F80" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="G80" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -3353,19 +3188,19 @@
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="D81" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="E81" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F81" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="G81" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -3376,19 +3211,19 @@
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="D82" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="E82" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F82" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G82" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -3399,19 +3234,19 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="D83" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="E83" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F83" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="G83" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -3422,19 +3257,19 @@
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>435</v>
+        <v>263</v>
       </c>
       <c r="D84" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="E84" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F84" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="G84" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -3445,19 +3280,19 @@
         <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="D85" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="E85" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F85" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="G85" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -3468,19 +3303,19 @@
         <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>291</v>
+        <v>131</v>
       </c>
       <c r="D86" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="E86" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F86" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="G86" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -3491,19 +3326,10 @@
         <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>292</v>
+        <v>404</v>
       </c>
       <c r="D87" t="s">
-        <v>281</v>
-      </c>
-      <c r="E87" t="s">
-        <v>58</v>
-      </c>
-      <c r="F87" t="s">
-        <v>193</v>
-      </c>
-      <c r="G87" t="s">
-        <v>145</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -3514,19 +3340,10 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>293</v>
+        <v>402</v>
       </c>
       <c r="D88" t="s">
-        <v>281</v>
-      </c>
-      <c r="E88" t="s">
-        <v>59</v>
-      </c>
-      <c r="F88" t="s">
-        <v>193</v>
-      </c>
-      <c r="G88" t="s">
-        <v>146</v>
+        <v>254</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -3537,19 +3354,10 @@
         <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>294</v>
+        <v>403</v>
       </c>
       <c r="D89" t="s">
-        <v>281</v>
-      </c>
-      <c r="E89" t="s">
-        <v>60</v>
-      </c>
-      <c r="F89" t="s">
-        <v>193</v>
-      </c>
-      <c r="G89" t="s">
-        <v>147</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -3560,19 +3368,10 @@
         <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>295</v>
+        <v>401</v>
       </c>
       <c r="D90" t="s">
-        <v>281</v>
-      </c>
-      <c r="E90" t="s">
-        <v>61</v>
-      </c>
-      <c r="F90" t="s">
-        <v>193</v>
-      </c>
-      <c r="G90" t="s">
-        <v>148</v>
+        <v>254</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -3583,10 +3382,10 @@
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>425</v>
+        <v>376</v>
       </c>
       <c r="D91" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -3597,19 +3396,19 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="D92" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E92" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F92" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="G92" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -3620,19 +3419,19 @@
         <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D93" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E93" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F93" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="G93" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -3643,19 +3442,19 @@
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="D94" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E94" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="G94" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -3666,19 +3465,19 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="D95" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E95" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="G95" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -3689,10 +3488,10 @@
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="D96" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -3703,10 +3502,10 @@
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="D97" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -3717,10 +3516,10 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="D98" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -3731,10 +3530,10 @@
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="D99" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -3745,10 +3544,10 @@
         <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="D100" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -3759,10 +3558,10 @@
         <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="D101" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -3773,10 +3572,10 @@
         <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="D102" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -3787,10 +3586,10 @@
         <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="D103" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -3801,10 +3600,10 @@
         <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
       <c r="D104" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -3815,10 +3614,10 @@
         <v>14</v>
       </c>
       <c r="C105" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
       <c r="D105" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -3829,10 +3628,10 @@
         <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>396</v>
+        <v>347</v>
       </c>
       <c r="D106" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -3843,19 +3642,19 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="D107" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="E107" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="G107" t="s">
-        <v>301</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -3866,19 +3665,19 @@
         <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="D108" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="E108" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F108" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="G108" t="s">
-        <v>302</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -3889,22 +3688,19 @@
         <v>3</v>
       </c>
       <c r="C109" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="D109" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="E109" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F109" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G109" t="s">
-        <v>303</v>
-      </c>
-      <c r="H109" t="s">
-        <v>154</v>
+        <v>272</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -3915,22 +3711,22 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="D110" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="E110" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F110" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="G110" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="H110" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
@@ -3941,19 +3737,22 @@
         <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="D111" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="E111" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="F111" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="G111" t="s">
-        <v>74</v>
+        <v>270</v>
+      </c>
+      <c r="H111" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -3964,19 +3763,19 @@
         <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="D112" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="E112" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F112" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="G112" t="s">
-        <v>75</v>
+        <v>269</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -3987,19 +3786,19 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="D113" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="E113" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F113" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="G113" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -4010,19 +3809,19 @@
         <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="D114" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="E114" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F114" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="G114" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -4033,19 +3832,19 @@
         <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="D115" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="E115" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F115" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="G115" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -4056,19 +3855,19 @@
         <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>427</v>
+        <v>377</v>
       </c>
       <c r="D116" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="E116" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F116" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="G116" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -4079,22 +3878,22 @@
         <v>11</v>
       </c>
       <c r="C117" t="s">
-        <v>318</v>
+        <v>382</v>
       </c>
       <c r="D117" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="E117" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F117" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="G117" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="I117" t="s">
-        <v>432</v>
+        <v>382</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -4105,19 +3904,19 @@
         <v>12</v>
       </c>
       <c r="C118" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="D118" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="E118" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F118" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="G118" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -4128,19 +3927,19 @@
         <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="D119" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="E119" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F119" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="G119" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -4151,10 +3950,10 @@
         <v>14</v>
       </c>
       <c r="C120" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="D120" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -4165,10 +3964,10 @@
         <v>15</v>
       </c>
       <c r="C121" t="s">
-        <v>398</v>
+        <v>349</v>
       </c>
       <c r="D121" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -4179,19 +3978,19 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>436</v>
+        <v>383</v>
       </c>
       <c r="D122" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="E122" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F122" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="G122" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -4202,19 +4001,19 @@
         <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>437</v>
+        <v>384</v>
       </c>
       <c r="D123" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="E123" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F123" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="G123" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -4225,19 +4024,19 @@
         <v>3</v>
       </c>
       <c r="C124" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="D124" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="E124" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F124" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="G124" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -4248,19 +4047,19 @@
         <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="D125" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="E125" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F125" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="G125" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -4271,19 +4070,19 @@
         <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>438</v>
+        <v>385</v>
       </c>
       <c r="D126" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="E126" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F126" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="G126" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -4294,19 +4093,10 @@
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>399</v>
+        <v>350</v>
       </c>
       <c r="D127" t="s">
-        <v>322</v>
-      </c>
-      <c r="E127" t="s">
-        <v>88</v>
-      </c>
-      <c r="F127" t="s">
-        <v>193</v>
-      </c>
-      <c r="G127" t="s">
-        <v>164</v>
+        <v>288</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -4317,19 +4107,10 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="D128" t="s">
-        <v>322</v>
-      </c>
-      <c r="E128" t="s">
-        <v>89</v>
-      </c>
-      <c r="F128" t="s">
-        <v>211</v>
-      </c>
-      <c r="G128" t="s">
-        <v>165</v>
+        <v>288</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -4340,19 +4121,10 @@
         <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>401</v>
+        <v>352</v>
       </c>
       <c r="D129" t="s">
-        <v>322</v>
-      </c>
-      <c r="E129" t="s">
-        <v>90</v>
-      </c>
-      <c r="F129" t="s">
-        <v>211</v>
-      </c>
-      <c r="G129" t="s">
-        <v>166</v>
+        <v>288</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -4363,19 +4135,10 @@
         <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>402</v>
+        <v>353</v>
       </c>
       <c r="D130" t="s">
-        <v>322</v>
-      </c>
-      <c r="E130" t="s">
-        <v>91</v>
-      </c>
-      <c r="F130" t="s">
-        <v>211</v>
-      </c>
-      <c r="G130" t="s">
-        <v>167</v>
+        <v>288</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -4386,10 +4149,10 @@
         <v>10</v>
       </c>
       <c r="C131" t="s">
-        <v>403</v>
+        <v>354</v>
       </c>
       <c r="D131" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -4400,10 +4163,10 @@
         <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>404</v>
+        <v>355</v>
       </c>
       <c r="D132" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -4414,10 +4177,10 @@
         <v>12</v>
       </c>
       <c r="C133" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
       <c r="D133" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
@@ -4428,10 +4191,10 @@
         <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>406</v>
+        <v>357</v>
       </c>
       <c r="D134" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -4442,10 +4205,10 @@
         <v>14</v>
       </c>
       <c r="C135" t="s">
-        <v>407</v>
+        <v>358</v>
       </c>
       <c r="D135" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -4456,10 +4219,10 @@
         <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
       <c r="D136" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -4470,22 +4233,22 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>338</v>
+        <v>145</v>
       </c>
       <c r="D137" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="E137" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F137" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="G137" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="H137" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -4496,22 +4259,22 @@
         <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>339</v>
+        <v>146</v>
       </c>
       <c r="D138" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="E138" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F138" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="G138" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="H138" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -4522,22 +4285,22 @@
         <v>3</v>
       </c>
       <c r="C139" t="s">
-        <v>340</v>
+        <v>147</v>
       </c>
       <c r="D139" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="E139" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F139" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="G139" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="H139" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -4548,22 +4311,22 @@
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>341</v>
+        <v>148</v>
       </c>
       <c r="D140" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="E140" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F140" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="G140" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="H140" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -4574,22 +4337,22 @@
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>342</v>
+        <v>149</v>
       </c>
       <c r="D141" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="E141" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F141" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="G141" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="H141" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -4600,22 +4363,22 @@
         <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>343</v>
+        <v>150</v>
       </c>
       <c r="D142" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="E142" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F142" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="G142" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="H142" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -4626,22 +4389,22 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>350</v>
+        <v>152</v>
       </c>
       <c r="D143" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="E143" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F143" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="G143" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="H143" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -4652,22 +4415,22 @@
         <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="D144" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="E144" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F144" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="G144" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="H144" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -4678,22 +4441,22 @@
         <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>344</v>
+        <v>153</v>
       </c>
       <c r="D145" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="E145" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F145" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="G145" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="H145" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -4704,22 +4467,22 @@
         <v>10</v>
       </c>
       <c r="C146" t="s">
-        <v>345</v>
+        <v>154</v>
       </c>
       <c r="D146" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="E146" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F146" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="G146" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="H146" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -4730,22 +4493,22 @@
         <v>11</v>
       </c>
       <c r="C147" t="s">
-        <v>346</v>
+        <v>155</v>
       </c>
       <c r="D147" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="E147" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F147" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="G147" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="H147" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
@@ -4756,22 +4519,22 @@
         <v>12</v>
       </c>
       <c r="C148" t="s">
-        <v>347</v>
+        <v>156</v>
       </c>
       <c r="D148" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="E148" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F148" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="G148" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="H148" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -4782,22 +4545,22 @@
         <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>349</v>
+        <v>157</v>
       </c>
       <c r="D149" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="E149" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F149" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="G149" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="H149" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -4808,22 +4571,22 @@
         <v>14</v>
       </c>
       <c r="C150" t="s">
-        <v>348</v>
+        <v>158</v>
       </c>
       <c r="D150" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="E150" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F150" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="G150" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="H150" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -4834,10 +4597,10 @@
         <v>15</v>
       </c>
       <c r="C151" t="s">
-        <v>409</v>
+        <v>360</v>
       </c>
       <c r="D151" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -4848,22 +4611,22 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>410</v>
+        <v>361</v>
       </c>
       <c r="D152" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="E152" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F152" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="G152" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="H152" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -4874,22 +4637,22 @@
         <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>411</v>
+        <v>362</v>
       </c>
       <c r="D153" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="E153" t="s">
         <v>13</v>
       </c>
       <c r="F153" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="G153" t="s">
-        <v>354</v>
+        <v>306</v>
       </c>
       <c r="H153" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -4900,22 +4663,22 @@
         <v>3</v>
       </c>
       <c r="C154" t="s">
-        <v>412</v>
+        <v>363</v>
       </c>
       <c r="D154" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="E154" t="s">
         <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="G154" t="s">
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="H154" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -4926,22 +4689,22 @@
         <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>413</v>
+        <v>364</v>
       </c>
       <c r="D155" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="E155" t="s">
         <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="G155" t="s">
-        <v>356</v>
+        <v>308</v>
       </c>
       <c r="H155" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -4952,22 +4715,22 @@
         <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
       <c r="D156" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="E156" t="s">
         <v>15</v>
       </c>
       <c r="F156" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="G156" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="H156" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -4978,22 +4741,22 @@
         <v>6</v>
       </c>
       <c r="C157" t="s">
-        <v>415</v>
+        <v>366</v>
       </c>
       <c r="D157" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="E157" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F157" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="G157" t="s">
-        <v>358</v>
+        <v>310</v>
       </c>
       <c r="H157" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
@@ -5004,10 +4767,10 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>416</v>
+        <v>367</v>
       </c>
       <c r="D158" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -5018,10 +4781,10 @@
         <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>417</v>
+        <v>368</v>
       </c>
       <c r="D159" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -5032,10 +4795,10 @@
         <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
       <c r="D160" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -5046,10 +4809,10 @@
         <v>10</v>
       </c>
       <c r="C161" t="s">
-        <v>419</v>
+        <v>370</v>
       </c>
       <c r="D161" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -5060,10 +4823,10 @@
         <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>420</v>
+        <v>371</v>
       </c>
       <c r="D162" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -5074,10 +4837,10 @@
         <v>12</v>
       </c>
       <c r="C163" t="s">
-        <v>421</v>
+        <v>372</v>
       </c>
       <c r="D163" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -5088,10 +4851,10 @@
         <v>13</v>
       </c>
       <c r="C164" t="s">
-        <v>422</v>
+        <v>373</v>
       </c>
       <c r="D164" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -5102,10 +4865,10 @@
         <v>14</v>
       </c>
       <c r="C165" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="D165" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -5116,10 +4879,10 @@
         <v>15</v>
       </c>
       <c r="C166" t="s">
-        <v>424</v>
+        <v>375</v>
       </c>
       <c r="D166" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -5129,10 +4892,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12872662-7795-8E49-8B63-4C56A42E1535}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A2:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:G9"/>
+      <selection activeCell="A2" sqref="A2:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5140,292 +4903,343 @@
     <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="61.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G5" t="s">
+        <v>271</v>
+      </c>
+      <c r="H5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>186</v>
+      </c>
+      <c r="G10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D11" t="s">
+        <v>276</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>429</v>
-      </c>
-      <c r="D4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C12" t="s">
+        <v>382</v>
+      </c>
+      <c r="D12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
+        <v>183</v>
+      </c>
+      <c r="G13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>430</v>
-      </c>
-      <c r="D5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C14" t="s">
+        <v>286</v>
+      </c>
+      <c r="D14" t="s">
+        <v>276</v>
+      </c>
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>348</v>
+      </c>
+      <c r="D15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>363</v>
-      </c>
-      <c r="D6" t="s">
-        <v>230</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>443</v>
-      </c>
-      <c r="D8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>190</v>
-      </c>
-      <c r="G8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>240</v>
-      </c>
-      <c r="D9" t="s">
-        <v>230</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>192</v>
-      </c>
-      <c r="G9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>368</v>
-      </c>
-      <c r="D13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>369</v>
-      </c>
-      <c r="D14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>370</v>
-      </c>
-      <c r="D15" t="s">
-        <v>230</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>193</v>
-      </c>
-      <c r="G15" t="s">
-        <v>111</v>
+      <c r="C16" t="s">
+        <v>349</v>
+      </c>
+      <c r="D16" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/dev/r3PGmix_info.xlsx
+++ b/dev/r3PGmix_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trotsiuk/Documents/software/r3PG/r3PGmix/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19351E6-E4F6-9B4F-A50E-4DFCC729D947}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F9D036-28B0-454E-85C1-0B10F4B11FFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28180" yWindow="460" windowWidth="18020" windowHeight="28340" xr2:uid="{9ECC47CC-383C-4247-B9D3-046711674009}"/>
+    <workbookView xWindow="10780" yWindow="460" windowWidth="18020" windowHeight="17540" xr2:uid="{9ECC47CC-383C-4247-B9D3-046711674009}"/>
   </bookViews>
   <sheets>
     <sheet name="var_names" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="407">
   <si>
     <t>description</t>
   </si>
@@ -1024,9 +1024,6 @@
     <t>var_4_15</t>
   </si>
   <si>
-    <t>var_5_11</t>
-  </si>
-  <si>
     <t>var_5_12</t>
   </si>
   <si>
@@ -1222,9 +1219,6 @@
     <t>var_4_11</t>
   </si>
   <si>
-    <t>var_4_8</t>
-  </si>
-  <si>
     <t>var_4_9</t>
   </si>
   <si>
@@ -1241,6 +1235,18 @@
   </si>
   <si>
     <t>var_6_11</t>
+  </si>
+  <si>
+    <t>gammaF</t>
+  </si>
+  <si>
+    <t>Litter fall rate</t>
+  </si>
+  <si>
+    <t>biom_incr_foliage</t>
+  </si>
+  <si>
+    <t>incrWF</t>
   </si>
 </sst>
 </file>
@@ -1594,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EDA796-FB5E-0A42-AB5E-6B438DB45270}">
   <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="42.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1696,7 +1702,7 @@
         <v>161</v>
       </c>
       <c r="G4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1719,7 +1725,7 @@
         <v>159</v>
       </c>
       <c r="G5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1742,7 +1748,7 @@
         <v>160</v>
       </c>
       <c r="G6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1865,7 +1871,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D12" t="s">
         <v>189</v>
@@ -2004,7 +2010,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D20" t="s">
         <v>207</v>
@@ -2027,7 +2033,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D21" t="s">
         <v>207</v>
@@ -2096,7 +2102,7 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D24" t="s">
         <v>207</v>
@@ -2142,7 +2148,7 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D26" t="s">
         <v>207</v>
@@ -2156,7 +2162,7 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D27" t="s">
         <v>207</v>
@@ -2170,7 +2176,7 @@
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D28" t="s">
         <v>207</v>
@@ -2249,7 +2255,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D33" t="s">
         <v>220</v>
@@ -2318,7 +2324,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D36" t="s">
         <v>220</v>
@@ -2641,7 +2647,7 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D52" t="s">
         <v>229</v>
@@ -2661,7 +2667,7 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D53" t="s">
         <v>229</v>
@@ -2684,10 +2690,13 @@
         <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D54" t="s">
         <v>229</v>
+      </c>
+      <c r="G54" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -2698,7 +2707,7 @@
         <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D55" t="s">
         <v>229</v>
@@ -2712,7 +2721,7 @@
         <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D56" t="s">
         <v>229</v>
@@ -2726,7 +2735,7 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D57" t="s">
         <v>229</v>
@@ -3026,10 +3035,13 @@
         <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>332</v>
+        <v>403</v>
       </c>
       <c r="D72" t="s">
         <v>242</v>
+      </c>
+      <c r="G72" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -3040,7 +3052,7 @@
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D73" t="s">
         <v>242</v>
@@ -3054,7 +3066,7 @@
         <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D74" t="s">
         <v>242</v>
@@ -3068,7 +3080,7 @@
         <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D75" t="s">
         <v>242</v>
@@ -3082,7 +3094,7 @@
         <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D76" t="s">
         <v>242</v>
@@ -3154,7 +3166,7 @@
         <v>178</v>
       </c>
       <c r="G79" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -3326,7 +3338,7 @@
         <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D87" t="s">
         <v>254</v>
@@ -3340,7 +3352,7 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D88" t="s">
         <v>254</v>
@@ -3354,7 +3366,7 @@
         <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D89" t="s">
         <v>254</v>
@@ -3368,7 +3380,7 @@
         <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D90" t="s">
         <v>254</v>
@@ -3382,7 +3394,7 @@
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D91" t="s">
         <v>254</v>
@@ -3488,7 +3500,7 @@
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D96" t="s">
         <v>134</v>
@@ -3502,7 +3514,7 @@
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D97" t="s">
         <v>134</v>
@@ -3516,7 +3528,7 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D98" t="s">
         <v>134</v>
@@ -3530,7 +3542,7 @@
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D99" t="s">
         <v>134</v>
@@ -3544,7 +3556,7 @@
         <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D100" t="s">
         <v>134</v>
@@ -3558,7 +3570,7 @@
         <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D101" t="s">
         <v>134</v>
@@ -3572,7 +3584,7 @@
         <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D102" t="s">
         <v>134</v>
@@ -3586,7 +3598,7 @@
         <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D103" t="s">
         <v>134</v>
@@ -3600,7 +3612,7 @@
         <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D104" t="s">
         <v>134</v>
@@ -3614,7 +3626,7 @@
         <v>14</v>
       </c>
       <c r="C105" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D105" t="s">
         <v>134</v>
@@ -3628,7 +3640,7 @@
         <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D106" t="s">
         <v>134</v>
@@ -3855,7 +3867,7 @@
         <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D116" t="s">
         <v>276</v>
@@ -3878,7 +3890,7 @@
         <v>11</v>
       </c>
       <c r="C117" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D117" t="s">
         <v>276</v>
@@ -3893,7 +3905,7 @@
         <v>274</v>
       </c>
       <c r="I117" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -3950,7 +3962,7 @@
         <v>14</v>
       </c>
       <c r="C120" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D120" t="s">
         <v>276</v>
@@ -3964,7 +3976,7 @@
         <v>15</v>
       </c>
       <c r="C121" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D121" t="s">
         <v>276</v>
@@ -3978,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D122" t="s">
         <v>288</v>
@@ -4001,7 +4013,7 @@
         <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D123" t="s">
         <v>288</v>
@@ -4070,7 +4082,7 @@
         <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D126" t="s">
         <v>288</v>
@@ -4093,7 +4105,7 @@
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D127" t="s">
         <v>288</v>
@@ -4107,7 +4119,7 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D128" t="s">
         <v>288</v>
@@ -4121,7 +4133,7 @@
         <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D129" t="s">
         <v>288</v>
@@ -4135,7 +4147,7 @@
         <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D130" t="s">
         <v>288</v>
@@ -4149,7 +4161,7 @@
         <v>10</v>
       </c>
       <c r="C131" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D131" t="s">
         <v>288</v>
@@ -4163,7 +4175,7 @@
         <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D132" t="s">
         <v>288</v>
@@ -4177,7 +4189,7 @@
         <v>12</v>
       </c>
       <c r="C133" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D133" t="s">
         <v>288</v>
@@ -4191,7 +4203,7 @@
         <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D134" t="s">
         <v>288</v>
@@ -4205,7 +4217,7 @@
         <v>14</v>
       </c>
       <c r="C135" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D135" t="s">
         <v>288</v>
@@ -4219,7 +4231,7 @@
         <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D136" t="s">
         <v>288</v>
@@ -4597,7 +4609,7 @@
         <v>15</v>
       </c>
       <c r="C151" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D151" t="s">
         <v>289</v>
@@ -4611,7 +4623,7 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D152" t="s">
         <v>304</v>
@@ -4637,7 +4649,7 @@
         <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D153" t="s">
         <v>304</v>
@@ -4663,7 +4675,7 @@
         <v>3</v>
       </c>
       <c r="C154" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D154" t="s">
         <v>304</v>
@@ -4689,7 +4701,7 @@
         <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D155" t="s">
         <v>304</v>
@@ -4715,7 +4727,7 @@
         <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D156" t="s">
         <v>304</v>
@@ -4741,7 +4753,7 @@
         <v>6</v>
       </c>
       <c r="C157" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D157" t="s">
         <v>304</v>
@@ -4767,7 +4779,7 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D158" t="s">
         <v>304</v>
@@ -4781,7 +4793,7 @@
         <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D159" t="s">
         <v>304</v>
@@ -4795,7 +4807,7 @@
         <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D160" t="s">
         <v>304</v>
@@ -4809,7 +4821,7 @@
         <v>10</v>
       </c>
       <c r="C161" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D161" t="s">
         <v>304</v>
@@ -4823,7 +4835,7 @@
         <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D162" t="s">
         <v>304</v>
@@ -4837,7 +4849,7 @@
         <v>12</v>
       </c>
       <c r="C163" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D163" t="s">
         <v>304</v>
@@ -4851,7 +4863,7 @@
         <v>13</v>
       </c>
       <c r="C164" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D164" t="s">
         <v>304</v>
@@ -4865,7 +4877,7 @@
         <v>14</v>
       </c>
       <c r="C165" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D165" t="s">
         <v>304</v>
@@ -4879,7 +4891,7 @@
         <v>15</v>
       </c>
       <c r="C166" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D166" t="s">
         <v>304</v>
@@ -5130,7 +5142,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D11" t="s">
         <v>276</v>
@@ -5153,7 +5165,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D12" t="s">
         <v>276</v>
@@ -5222,7 +5234,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D15" t="s">
         <v>276</v>
@@ -5236,7 +5248,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D16" t="s">
         <v>276</v>

--- a/dev/r3PGmix_info.xlsx
+++ b/dev/r3PGmix_info.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trotsiuk/Documents/software/r3PG/r3PGmix/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F9D036-28B0-454E-85C1-0B10F4B11FFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13C972C-E677-BE41-8A99-7DFC49932F48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10780" yWindow="460" windowWidth="18020" windowHeight="17540" xr2:uid="{9ECC47CC-383C-4247-B9D3-046711674009}"/>
+    <workbookView xWindow="22420" yWindow="460" windowWidth="28600" windowHeight="28340" xr2:uid="{9ECC47CC-383C-4247-B9D3-046711674009}"/>
   </bookViews>
   <sheets>
     <sheet name="var_names" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="398">
   <si>
     <t>description</t>
   </si>
@@ -322,24 +321,6 @@
     <t>LCL</t>
   </si>
   <si>
-    <t>CropTrees</t>
-  </si>
-  <si>
-    <t>avDBHCrop</t>
-  </si>
-  <si>
-    <t>BasAreaCrop</t>
-  </si>
-  <si>
-    <t>StandVolCrop</t>
-  </si>
-  <si>
-    <t>HeightCrop</t>
-  </si>
-  <si>
-    <t>WSCrop</t>
-  </si>
-  <si>
     <t>SLA</t>
   </si>
   <si>
@@ -433,12 +414,6 @@
     <t>mortality</t>
   </si>
   <si>
-    <t>fRainInt</t>
-  </si>
-  <si>
-    <t>RainInt</t>
-  </si>
-  <si>
     <t>WUE</t>
   </si>
   <si>
@@ -808,9 +783,6 @@
     <t>epsilon_gpp</t>
   </si>
   <si>
-    <t>Litter fall</t>
-  </si>
-  <si>
     <t>npp_fract_root</t>
   </si>
   <si>
@@ -970,9 +942,6 @@
     <t>Number of frost days per month</t>
   </si>
   <si>
-    <t>included</t>
-  </si>
-  <si>
     <t>crown_length</t>
   </si>
   <si>
@@ -1247,6 +1216,9 @@
   </si>
   <si>
     <t>incrWF</t>
+  </si>
+  <si>
+    <t>Litter fall of period</t>
   </si>
 </sst>
 </file>
@@ -1598,33 +1570,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EDA796-FB5E-0A42-AB5E-6B438DB45270}">
-  <dimension ref="A1:I166"/>
+  <dimension ref="A1:G166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="42.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="49.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.5" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1638,11 +1609,8 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1650,19 +1618,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1670,19 +1638,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1690,22 +1658,22 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D4" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1713,22 +1681,22 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D5" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E5" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="F5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G5" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1736,22 +1704,22 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D6" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1759,22 +1727,22 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="F7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1782,22 +1750,22 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D8" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1805,22 +1773,22 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D9" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1828,19 +1796,19 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D10" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1848,22 +1816,22 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D11" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1871,13 +1839,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="D12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1885,13 +1853,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1899,13 +1867,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="D14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1913,13 +1881,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1927,10 +1895,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D16" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1941,19 +1909,19 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D17" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E17" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F17" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G17" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1964,19 +1932,19 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D18" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1987,19 +1955,19 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D19" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G19" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -2010,16 +1978,16 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D20" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
@@ -2033,16 +2001,16 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="D21" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E21" t="s">
         <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G21" t="s">
         <v>96</v>
@@ -2056,16 +2024,16 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="D22" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E22" t="s">
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -2079,19 +2047,19 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D23" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E23" t="s">
         <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G23" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -2102,19 +2070,19 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D24" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G24" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -2125,16 +2093,16 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D25" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G25" t="s">
         <v>95</v>
@@ -2148,10 +2116,10 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="D26" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2162,10 +2130,10 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="D27" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -2176,10 +2144,10 @@
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D28" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -2190,10 +2158,10 @@
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D29" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -2204,10 +2172,10 @@
         <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="D30" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -2218,10 +2186,10 @@
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D31" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -2232,19 +2200,19 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D32" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E32" t="s">
         <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G32" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -2255,19 +2223,19 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D33" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E33" t="s">
         <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G33" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2278,19 +2246,19 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D34" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E34" t="s">
         <v>22</v>
       </c>
       <c r="F34" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G34" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -2301,19 +2269,19 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D35" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E35" t="s">
         <v>23</v>
       </c>
       <c r="F35" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G35" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -2324,19 +2292,19 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D36" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E36" t="s">
         <v>24</v>
       </c>
       <c r="F36" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G36" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -2347,19 +2315,19 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D37" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E37" t="s">
         <v>25</v>
       </c>
       <c r="F37" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G37" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -2370,19 +2338,19 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D38" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E38" t="s">
         <v>26</v>
       </c>
       <c r="F38" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G38" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -2393,19 +2361,19 @@
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D39" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E39" t="s">
         <v>27</v>
       </c>
       <c r="F39" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G39" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -2416,19 +2384,19 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D40" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E40" t="s">
         <v>28</v>
       </c>
       <c r="F40" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G40" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -2439,19 +2407,19 @@
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D41" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E41" t="s">
         <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G41" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -2462,10 +2430,10 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="D42" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -2476,10 +2444,10 @@
         <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="D43" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -2490,10 +2458,10 @@
         <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D44" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -2504,10 +2472,10 @@
         <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="D45" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -2518,10 +2486,10 @@
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D46" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -2532,19 +2500,19 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D47" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E47" t="s">
         <v>19</v>
       </c>
       <c r="F47" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G47" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -2555,19 +2523,19 @@
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D48" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E48" t="s">
         <v>31</v>
       </c>
       <c r="F48" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G48" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -2578,19 +2546,19 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D49" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E49" t="s">
         <v>30</v>
       </c>
       <c r="F49" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G49" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -2601,19 +2569,19 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D50" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E50" t="s">
         <v>32</v>
       </c>
       <c r="F50" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G50" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -2624,19 +2592,19 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D51" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E51" t="s">
         <v>33</v>
       </c>
       <c r="F51" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G51" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -2647,16 +2615,16 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D52" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E52" t="s">
         <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -2667,19 +2635,19 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D53" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E53" t="s">
         <v>55</v>
       </c>
       <c r="F53" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G53" t="s">
-        <v>260</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -2690,13 +2658,13 @@
         <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="D54" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G54" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -2707,10 +2675,10 @@
         <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="D55" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -2721,10 +2689,10 @@
         <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D56" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -2735,10 +2703,10 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D57" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -2749,10 +2717,10 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D58" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -2763,10 +2731,10 @@
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D59" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -2777,10 +2745,10 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="D60" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -2791,10 +2759,10 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="D61" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -2805,19 +2773,19 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D62" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E62" t="s">
         <v>35</v>
       </c>
       <c r="F62" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G62" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -2828,19 +2796,19 @@
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D63" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E63" t="s">
         <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G63" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -2851,19 +2819,19 @@
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D64" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E64" t="s">
         <v>37</v>
       </c>
       <c r="F64" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G64" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -2874,19 +2842,19 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D65" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E65" t="s">
         <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G65" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -2897,19 +2865,19 @@
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D66" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E66" t="s">
         <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G66" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -2920,19 +2888,19 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D67" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E67" t="s">
         <v>40</v>
       </c>
       <c r="F67" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G67" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -2943,19 +2911,19 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D68" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E68" t="s">
         <v>41</v>
       </c>
       <c r="F68" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G68" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -2966,19 +2934,19 @@
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D69" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E69" t="s">
         <v>42</v>
       </c>
       <c r="F69" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G69" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -2989,19 +2957,19 @@
         <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D70" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E70" t="s">
         <v>43</v>
       </c>
       <c r="F70" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G70" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -3012,19 +2980,19 @@
         <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D71" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E71" t="s">
         <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G71" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -3035,13 +3003,13 @@
         <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="D72" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G72" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -3052,10 +3020,10 @@
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D73" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -3066,10 +3034,10 @@
         <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="D74" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -3080,10 +3048,10 @@
         <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D75" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -3094,10 +3062,10 @@
         <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D76" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -3108,19 +3076,19 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D77" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E77" t="s">
         <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G77" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -3131,19 +3099,19 @@
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D78" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E78" t="s">
         <v>46</v>
       </c>
       <c r="F78" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G78" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -3154,19 +3122,19 @@
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D79" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E79" t="s">
         <v>47</v>
       </c>
       <c r="F79" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G79" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -3177,19 +3145,19 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D80" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E80" t="s">
         <v>48</v>
       </c>
       <c r="F80" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G80" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -3200,19 +3168,19 @@
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D81" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E81" t="s">
         <v>49</v>
       </c>
       <c r="F81" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G81" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -3223,19 +3191,19 @@
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D82" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E82" t="s">
         <v>50</v>
       </c>
       <c r="F82" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G82" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -3246,19 +3214,19 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D83" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E83" t="s">
         <v>52</v>
       </c>
       <c r="F83" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G83" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -3269,19 +3237,19 @@
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D84" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E84" t="s">
         <v>53</v>
       </c>
       <c r="F84" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G84" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -3292,19 +3260,19 @@
         <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D85" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E85" t="s">
         <v>51</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G85" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -3315,19 +3283,19 @@
         <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D86" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E86" t="s">
         <v>54</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G86" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -3338,10 +3306,10 @@
         <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="D87" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -3352,10 +3320,10 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D88" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -3366,10 +3334,10 @@
         <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="D89" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -3380,10 +3348,10 @@
         <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D90" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -3394,10 +3362,10 @@
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D91" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -3408,19 +3376,19 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D92" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E92" t="s">
         <v>57</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G92" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -3431,19 +3399,19 @@
         <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D93" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E93" t="s">
         <v>58</v>
       </c>
       <c r="F93" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G93" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -3454,19 +3422,19 @@
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D94" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E94" t="s">
         <v>59</v>
       </c>
       <c r="F94" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G94" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -3477,16 +3445,16 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D95" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E95" t="s">
         <v>60</v>
       </c>
       <c r="F95" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G95" t="s">
         <v>56</v>
@@ -3500,13 +3468,13 @@
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="D96" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>7</v>
       </c>
@@ -3514,13 +3482,13 @@
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="D97" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>7</v>
       </c>
@@ -3528,13 +3496,13 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="D98" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>7</v>
       </c>
@@ -3542,13 +3510,13 @@
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D99" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>7</v>
       </c>
@@ -3556,13 +3524,13 @@
         <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D100" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>7</v>
       </c>
@@ -3570,13 +3538,13 @@
         <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="D101" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>7</v>
       </c>
@@ -3584,13 +3552,13 @@
         <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="D102" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>7</v>
       </c>
@@ -3598,13 +3566,13 @@
         <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D103" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>7</v>
       </c>
@@ -3612,13 +3580,13 @@
         <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="D104" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>7</v>
       </c>
@@ -3626,13 +3594,13 @@
         <v>14</v>
       </c>
       <c r="C105" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="D105" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>7</v>
       </c>
@@ -3640,13 +3608,13 @@
         <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D106" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>8</v>
       </c>
@@ -3654,22 +3622,22 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D107" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E107" t="s">
         <v>65</v>
       </c>
       <c r="F107" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G107" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>8</v>
       </c>
@@ -3677,22 +3645,22 @@
         <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D108" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E108" t="s">
         <v>66</v>
       </c>
       <c r="F108" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G108" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>8</v>
       </c>
@@ -3700,22 +3668,22 @@
         <v>3</v>
       </c>
       <c r="C109" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D109" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E109" t="s">
         <v>67</v>
       </c>
       <c r="F109" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G109" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>8</v>
       </c>
@@ -3723,25 +3691,22 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D110" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E110" t="s">
         <v>64</v>
       </c>
       <c r="F110" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G110" t="s">
-        <v>271</v>
-      </c>
-      <c r="H110" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>8</v>
       </c>
@@ -3749,25 +3714,22 @@
         <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D111" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E111" t="s">
         <v>63</v>
       </c>
       <c r="F111" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G111" t="s">
-        <v>270</v>
-      </c>
-      <c r="H111" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>8</v>
       </c>
@@ -3775,22 +3737,22 @@
         <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D112" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E112" t="s">
         <v>62</v>
       </c>
       <c r="F112" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G112" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>8</v>
       </c>
@@ -3798,22 +3760,22 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D113" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E113" t="s">
         <v>61</v>
       </c>
       <c r="F113" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G113" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>8</v>
       </c>
@@ -3821,22 +3783,22 @@
         <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D114" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E114" t="s">
         <v>68</v>
       </c>
       <c r="F114" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G114" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>8</v>
       </c>
@@ -3844,22 +3806,22 @@
         <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D115" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E115" t="s">
         <v>69</v>
       </c>
       <c r="F115" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G115" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>8</v>
       </c>
@@ -3867,22 +3829,22 @@
         <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D116" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E116" t="s">
         <v>70</v>
       </c>
       <c r="F116" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G116" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>8</v>
       </c>
@@ -3890,25 +3852,22 @@
         <v>11</v>
       </c>
       <c r="C117" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="D117" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E117" t="s">
         <v>71</v>
       </c>
       <c r="F117" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G117" t="s">
-        <v>274</v>
-      </c>
-      <c r="I117" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>8</v>
       </c>
@@ -3916,22 +3875,22 @@
         <v>12</v>
       </c>
       <c r="C118" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D118" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E118" t="s">
         <v>72</v>
       </c>
       <c r="F118" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G118" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>8</v>
       </c>
@@ -3939,22 +3898,22 @@
         <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D119" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E119" t="s">
         <v>73</v>
       </c>
       <c r="F119" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G119" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>8</v>
       </c>
@@ -3962,13 +3921,13 @@
         <v>14</v>
       </c>
       <c r="C120" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="D120" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>8</v>
       </c>
@@ -3976,13 +3935,13 @@
         <v>15</v>
       </c>
       <c r="C121" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="D121" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>9</v>
       </c>
@@ -3990,22 +3949,22 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="D122" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="E122" t="s">
         <v>74</v>
       </c>
       <c r="F122" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G122" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>9</v>
       </c>
@@ -4013,22 +3972,22 @@
         <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D123" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="E123" t="s">
         <v>75</v>
       </c>
       <c r="F123" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G123" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>9</v>
       </c>
@@ -4036,22 +3995,22 @@
         <v>3</v>
       </c>
       <c r="C124" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D124" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="E124" t="s">
         <v>76</v>
       </c>
       <c r="F124" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G124" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>9</v>
       </c>
@@ -4059,22 +4018,22 @@
         <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D125" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="E125" t="s">
         <v>77</v>
       </c>
       <c r="F125" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G125" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>9</v>
       </c>
@@ -4082,22 +4041,22 @@
         <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D126" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="E126" t="s">
         <v>78</v>
       </c>
       <c r="F126" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G126" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>9</v>
       </c>
@@ -4105,13 +4064,13 @@
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D127" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>9</v>
       </c>
@@ -4119,13 +4078,13 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D128" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>9</v>
       </c>
@@ -4133,13 +4092,13 @@
         <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="D129" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>9</v>
       </c>
@@ -4147,13 +4106,13 @@
         <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="D130" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>9</v>
       </c>
@@ -4161,13 +4120,13 @@
         <v>10</v>
       </c>
       <c r="C131" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D131" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>9</v>
       </c>
@@ -4175,13 +4134,13 @@
         <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D132" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>9</v>
       </c>
@@ -4189,13 +4148,13 @@
         <v>12</v>
       </c>
       <c r="C133" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="D133" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>9</v>
       </c>
@@ -4203,13 +4162,13 @@
         <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D134" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>9</v>
       </c>
@@ -4217,13 +4176,13 @@
         <v>14</v>
       </c>
       <c r="C135" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="D135" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>9</v>
       </c>
@@ -4231,13 +4190,13 @@
         <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="D136" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>10</v>
       </c>
@@ -4245,25 +4204,22 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D137" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E137" t="s">
         <v>79</v>
       </c>
       <c r="F137" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G137" t="s">
-        <v>290</v>
-      </c>
-      <c r="H137" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>10</v>
       </c>
@@ -4271,25 +4227,22 @@
         <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D138" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E138" t="s">
         <v>80</v>
       </c>
       <c r="F138" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G138" t="s">
-        <v>291</v>
-      </c>
-      <c r="H138" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>10</v>
       </c>
@@ -4297,25 +4250,22 @@
         <v>3</v>
       </c>
       <c r="C139" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D139" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E139" t="s">
         <v>81</v>
       </c>
       <c r="F139" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G139" t="s">
-        <v>292</v>
-      </c>
-      <c r="H139" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>10</v>
       </c>
@@ -4323,25 +4273,22 @@
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D140" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E140" t="s">
         <v>82</v>
       </c>
       <c r="F140" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G140" t="s">
-        <v>293</v>
-      </c>
-      <c r="H140" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>10</v>
       </c>
@@ -4349,25 +4296,22 @@
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D141" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E141" t="s">
         <v>83</v>
       </c>
       <c r="F141" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G141" t="s">
-        <v>294</v>
-      </c>
-      <c r="H141" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>10</v>
       </c>
@@ -4375,25 +4319,22 @@
         <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D142" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E142" t="s">
         <v>84</v>
       </c>
       <c r="F142" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G142" t="s">
-        <v>295</v>
-      </c>
-      <c r="H142" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>10</v>
       </c>
@@ -4401,25 +4342,22 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D143" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E143" t="s">
         <v>86</v>
       </c>
       <c r="F143" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G143" t="s">
-        <v>297</v>
-      </c>
-      <c r="H143" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>10</v>
       </c>
@@ -4427,25 +4365,22 @@
         <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D144" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E144" t="s">
         <v>85</v>
       </c>
       <c r="F144" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G144" t="s">
-        <v>296</v>
-      </c>
-      <c r="H144" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>10</v>
       </c>
@@ -4453,25 +4388,22 @@
         <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D145" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E145" t="s">
         <v>87</v>
       </c>
       <c r="F145" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G145" t="s">
-        <v>298</v>
-      </c>
-      <c r="H145" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>10</v>
       </c>
@@ -4479,25 +4411,22 @@
         <v>10</v>
       </c>
       <c r="C146" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D146" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E146" t="s">
         <v>88</v>
       </c>
       <c r="F146" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G146" t="s">
-        <v>299</v>
-      </c>
-      <c r="H146" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>10</v>
       </c>
@@ -4505,25 +4434,22 @@
         <v>11</v>
       </c>
       <c r="C147" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D147" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E147" t="s">
         <v>89</v>
       </c>
       <c r="F147" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G147" t="s">
-        <v>300</v>
-      </c>
-      <c r="H147" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>10</v>
       </c>
@@ -4531,25 +4457,22 @@
         <v>12</v>
       </c>
       <c r="C148" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D148" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E148" t="s">
         <v>90</v>
       </c>
       <c r="F148" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G148" t="s">
-        <v>301</v>
-      </c>
-      <c r="H148" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>10</v>
       </c>
@@ -4557,25 +4480,22 @@
         <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D149" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E149" t="s">
         <v>91</v>
       </c>
       <c r="F149" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G149" t="s">
-        <v>302</v>
-      </c>
-      <c r="H149" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>10</v>
       </c>
@@ -4583,25 +4503,22 @@
         <v>14</v>
       </c>
       <c r="C150" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D150" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E150" t="s">
         <v>92</v>
       </c>
       <c r="F150" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G150" t="s">
-        <v>303</v>
-      </c>
-      <c r="H150" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>10</v>
       </c>
@@ -4609,13 +4526,13 @@
         <v>15</v>
       </c>
       <c r="C151" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D151" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>11</v>
       </c>
@@ -4623,25 +4540,22 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D152" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E152" t="s">
         <v>18</v>
       </c>
       <c r="F152" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G152" t="s">
-        <v>305</v>
-      </c>
-      <c r="H152" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>11</v>
       </c>
@@ -4649,25 +4563,22 @@
         <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="D153" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E153" t="s">
         <v>13</v>
       </c>
       <c r="F153" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G153" t="s">
-        <v>306</v>
-      </c>
-      <c r="H153" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>11</v>
       </c>
@@ -4675,25 +4586,22 @@
         <v>3</v>
       </c>
       <c r="C154" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="D154" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E154" t="s">
         <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G154" t="s">
-        <v>307</v>
-      </c>
-      <c r="H154" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>11</v>
       </c>
@@ -4701,25 +4609,22 @@
         <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="D155" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E155" t="s">
         <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G155" t="s">
-        <v>308</v>
-      </c>
-      <c r="H155" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>11</v>
       </c>
@@ -4727,25 +4632,22 @@
         <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D156" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E156" t="s">
         <v>15</v>
       </c>
       <c r="F156" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G156" t="s">
-        <v>309</v>
-      </c>
-      <c r="H156" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>11</v>
       </c>
@@ -4753,25 +4655,22 @@
         <v>6</v>
       </c>
       <c r="C157" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D157" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E157" t="s">
         <v>19</v>
       </c>
       <c r="F157" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G157" t="s">
-        <v>310</v>
-      </c>
-      <c r="H157" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>11</v>
       </c>
@@ -4779,13 +4678,13 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D158" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>11</v>
       </c>
@@ -4793,13 +4692,13 @@
         <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D159" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>11</v>
       </c>
@@ -4807,10 +4706,10 @@
         <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D160" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -4821,10 +4720,10 @@
         <v>10</v>
       </c>
       <c r="C161" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="D161" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -4835,10 +4734,10 @@
         <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D162" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -4849,10 +4748,10 @@
         <v>12</v>
       </c>
       <c r="C163" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="D163" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -4863,10 +4762,10 @@
         <v>13</v>
       </c>
       <c r="C164" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="D164" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -4877,10 +4776,10 @@
         <v>14</v>
       </c>
       <c r="C165" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="D165" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -4891,367 +4790,10 @@
         <v>15</v>
       </c>
       <c r="C166" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D166" t="s">
-        <v>304</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12872662-7795-8E49-8B63-4C56A42E1535}">
-  <dimension ref="A2:H16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="61.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" t="s">
-        <v>183</v>
-      </c>
-      <c r="G5" t="s">
-        <v>271</v>
-      </c>
-      <c r="H5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D6" t="s">
-        <v>276</v>
-      </c>
-      <c r="E6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" t="s">
-        <v>170</v>
-      </c>
-      <c r="G6" t="s">
-        <v>270</v>
-      </c>
-      <c r="H6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>287</v>
-      </c>
-      <c r="D7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>277</v>
-      </c>
-      <c r="D8" t="s">
-        <v>276</v>
-      </c>
-      <c r="E8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" t="s">
-        <v>183</v>
-      </c>
-      <c r="G8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>283</v>
-      </c>
-      <c r="D9" t="s">
-        <v>276</v>
-      </c>
-      <c r="E9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" t="s">
-        <v>186</v>
-      </c>
-      <c r="G9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>284</v>
-      </c>
-      <c r="D10" t="s">
-        <v>276</v>
-      </c>
-      <c r="E10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" t="s">
-        <v>186</v>
-      </c>
-      <c r="G10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>376</v>
-      </c>
-      <c r="D11" t="s">
-        <v>276</v>
-      </c>
-      <c r="E11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" t="s">
-        <v>185</v>
-      </c>
-      <c r="G11" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>381</v>
-      </c>
-      <c r="D12" t="s">
-        <v>276</v>
-      </c>
-      <c r="E12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" t="s">
-        <v>185</v>
-      </c>
-      <c r="G12" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>285</v>
-      </c>
-      <c r="D13" t="s">
-        <v>276</v>
-      </c>
-      <c r="E13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" t="s">
-        <v>183</v>
-      </c>
-      <c r="G13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>286</v>
-      </c>
-      <c r="D14" t="s">
-        <v>276</v>
-      </c>
-      <c r="E14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" t="s">
-        <v>183</v>
-      </c>
-      <c r="G14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>347</v>
-      </c>
-      <c r="D15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>348</v>
-      </c>
-      <c r="D16" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/dev/r3PGmix_info.xlsx
+++ b/dev/r3PGmix_info.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trotsiuk/Documents/software/r3PG/r3PGmix/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13C972C-E677-BE41-8A99-7DFC49932F48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86059CC9-98D0-8E4C-BC42-52EC50D65D49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22420" yWindow="460" windowWidth="28600" windowHeight="28340" xr2:uid="{9ECC47CC-383C-4247-B9D3-046711674009}"/>
+    <workbookView xWindow="24880" yWindow="460" windowWidth="21260" windowHeight="28340" xr2:uid="{9ECC47CC-383C-4247-B9D3-046711674009}"/>
   </bookViews>
   <sheets>
     <sheet name="var_names" sheetId="1" r:id="rId1"/>
+    <sheet name="var_names_v01" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="458">
   <si>
     <t>description</t>
   </si>
@@ -1219,6 +1220,186 @@
   </si>
   <si>
     <t>Litter fall of period</t>
+  </si>
+  <si>
+    <t>day_length</t>
+  </si>
+  <si>
+    <t>Day length (sunrise to sunset)</t>
+  </si>
+  <si>
+    <t>s d-1</t>
+  </si>
+  <si>
+    <t>basal_area_prop</t>
+  </si>
+  <si>
+    <t>Proportion of stand basal area (totalBA) contributed by the given species species</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>height_rel</t>
+  </si>
+  <si>
+    <t>Height of the given species divided by the mean height of all trees in the stand (e.g. mean height of all species weighted by the number of trees per ha of that species)</t>
+  </si>
+  <si>
+    <t>volume_change</t>
+  </si>
+  <si>
+    <t>Stem volume increment in current period</t>
+  </si>
+  <si>
+    <t>lai_sa_ratio</t>
+  </si>
+  <si>
+    <t>Mean individual tree leaf area to crown surface area ratio</t>
+  </si>
+  <si>
+    <t>biom_loss_foliage</t>
+  </si>
+  <si>
+    <t>biom_loss_root</t>
+  </si>
+  <si>
+    <t>Root loss in current period</t>
+  </si>
+  <si>
+    <t>Biomass increment foliage</t>
+  </si>
+  <si>
+    <t>biom_incr_root</t>
+  </si>
+  <si>
+    <t>Biomass increment root</t>
+  </si>
+  <si>
+    <t>biom_incr_stem</t>
+  </si>
+  <si>
+    <t>Biomass increment stem</t>
+  </si>
+  <si>
+    <t>Current leaf litterfall rate</t>
+  </si>
+  <si>
+    <t>f_transp_scale</t>
+  </si>
+  <si>
+    <t>Transpiration scaling factor</t>
+  </si>
+  <si>
+    <t>biom_foliage_debt</t>
+  </si>
+  <si>
+    <t>The NPP that must be assimilated before further any growth (for decidous species)</t>
+  </si>
+  <si>
+    <t>mortality_management</t>
+  </si>
+  <si>
+    <t>volume_extracted</t>
+  </si>
+  <si>
+    <t>Volume extracted during the most recent thinning event</t>
+  </si>
+  <si>
+    <t>var_8_5</t>
+  </si>
+  <si>
+    <t>var_8_7</t>
+  </si>
+  <si>
+    <t>var_8_8</t>
+  </si>
+  <si>
+    <t>var_8_9</t>
+  </si>
+  <si>
+    <t>var_8_10</t>
+  </si>
+  <si>
+    <t>var_8_11</t>
+  </si>
+  <si>
+    <t>var_8_12</t>
+  </si>
+  <si>
+    <t>var_8_13</t>
+  </si>
+  <si>
+    <t>Min temp.</t>
+  </si>
+  <si>
+    <t>Max temp.</t>
+  </si>
+  <si>
+    <t>Daylength</t>
+  </si>
+  <si>
+    <t>SpeciesProportionBA</t>
+  </si>
+  <si>
+    <t>SpeciesProportionLAI</t>
+  </si>
+  <si>
+    <t>CVI</t>
+  </si>
+  <si>
+    <t>treeLAtoSAratio</t>
+  </si>
+  <si>
+    <t>Foliage litter fall of period</t>
+  </si>
+  <si>
+    <t>Root litter fall of period</t>
+  </si>
+  <si>
+    <t>incrWR</t>
+  </si>
+  <si>
+    <t>incrWS</t>
+  </si>
+  <si>
+    <t>Transp Scale Factor</t>
+  </si>
+  <si>
+    <t>NPPdebt</t>
+  </si>
+  <si>
+    <t>Latest extracted volume</t>
+  </si>
+  <si>
+    <t>Foliage litter fall in current period</t>
+  </si>
+  <si>
+    <t>epsilon_npp</t>
+  </si>
+  <si>
+    <t>epsilon_biom_stem</t>
+  </si>
+  <si>
+    <t>Light-use efficiency based on stem biomass (increment in WS)</t>
+  </si>
+  <si>
+    <t>Light-use efficiency based on NPP</t>
+  </si>
+  <si>
+    <t>Stem DM epsilon</t>
+  </si>
+  <si>
+    <t>NPPEpsilon</t>
+  </si>
+  <si>
+    <t>volume_cum</t>
+  </si>
+  <si>
+    <t>Total cumulative volume (stand volume + extracted volume +  mortality)</t>
+  </si>
+  <si>
+    <t>Total cumulative volume</t>
   </si>
 </sst>
 </file>
@@ -1570,10 +1751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EDA796-FB5E-0A42-AB5E-6B438DB45270}">
-  <dimension ref="A1:G166"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="42.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1629,6 +1810,3158 @@
       <c r="F2" t="s">
         <v>153</v>
       </c>
+      <c r="G2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>378</v>
+      </c>
+      <c r="D12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>308</v>
+      </c>
+      <c r="D15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>309</v>
+      </c>
+      <c r="D16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" t="s">
+        <v>201</v>
+      </c>
+      <c r="F17" t="s">
+        <v>202</v>
+      </c>
+      <c r="G17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>206</v>
+      </c>
+      <c r="D19" t="s">
+        <v>199</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>401</v>
+      </c>
+      <c r="D20" t="s">
+        <v>199</v>
+      </c>
+      <c r="E20" t="s">
+        <v>402</v>
+      </c>
+      <c r="F20" t="s">
+        <v>403</v>
+      </c>
+      <c r="G20" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>368</v>
+      </c>
+      <c r="D21" t="s">
+        <v>199</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>369</v>
+      </c>
+      <c r="D22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>404</v>
+      </c>
+      <c r="D23" t="s">
+        <v>199</v>
+      </c>
+      <c r="E23" t="s">
+        <v>405</v>
+      </c>
+      <c r="F23" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>305</v>
+      </c>
+      <c r="D24" t="s">
+        <v>199</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>379</v>
+      </c>
+      <c r="D26" t="s">
+        <v>199</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>159</v>
+      </c>
+      <c r="G26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>209</v>
+      </c>
+      <c r="D27" t="s">
+        <v>199</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>406</v>
+      </c>
+      <c r="D28" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" t="s">
+        <v>407</v>
+      </c>
+      <c r="F28" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>455</v>
+      </c>
+      <c r="D29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E29" t="s">
+        <v>456</v>
+      </c>
+      <c r="F29" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>311</v>
+      </c>
+      <c r="D30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>312</v>
+      </c>
+      <c r="D31" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>384</v>
+      </c>
+      <c r="D32" t="s">
+        <v>212</v>
+      </c>
+      <c r="E32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>213</v>
+      </c>
+      <c r="D33" t="s">
+        <v>212</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>215</v>
+      </c>
+      <c r="D34" t="s">
+        <v>212</v>
+      </c>
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" t="s">
+        <v>165</v>
+      </c>
+      <c r="G34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>216</v>
+      </c>
+      <c r="D35" t="s">
+        <v>212</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>165</v>
+      </c>
+      <c r="G35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>408</v>
+      </c>
+      <c r="D36" t="s">
+        <v>212</v>
+      </c>
+      <c r="E36" t="s">
+        <v>409</v>
+      </c>
+      <c r="G36" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D37" t="s">
+        <v>212</v>
+      </c>
+      <c r="E37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" t="s">
+        <v>166</v>
+      </c>
+      <c r="G37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>383</v>
+      </c>
+      <c r="D38" t="s">
+        <v>212</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" t="s">
+        <v>162</v>
+      </c>
+      <c r="G38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>217</v>
+      </c>
+      <c r="D39" t="s">
+        <v>212</v>
+      </c>
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" t="s">
+        <v>162</v>
+      </c>
+      <c r="G39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>218</v>
+      </c>
+      <c r="D40" t="s">
+        <v>212</v>
+      </c>
+      <c r="E40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" t="s">
+        <v>162</v>
+      </c>
+      <c r="G40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>219</v>
+      </c>
+      <c r="D41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" t="s">
+        <v>167</v>
+      </c>
+      <c r="G41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>220</v>
+      </c>
+      <c r="D42" t="s">
+        <v>212</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" t="s">
+        <v>154</v>
+      </c>
+      <c r="G42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>314</v>
+      </c>
+      <c r="D43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
+        <v>315</v>
+      </c>
+      <c r="D44" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>316</v>
+      </c>
+      <c r="D45" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>317</v>
+      </c>
+      <c r="D46" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>224</v>
+      </c>
+      <c r="D47" t="s">
+        <v>221</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" t="s">
+        <v>163</v>
+      </c>
+      <c r="G47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>223</v>
+      </c>
+      <c r="D48" t="s">
+        <v>221</v>
+      </c>
+      <c r="E48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" t="s">
+        <v>163</v>
+      </c>
+      <c r="G48" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>222</v>
+      </c>
+      <c r="D49" t="s">
+        <v>221</v>
+      </c>
+      <c r="E49" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" t="s">
+        <v>163</v>
+      </c>
+      <c r="G49" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>225</v>
+      </c>
+      <c r="D50" t="s">
+        <v>221</v>
+      </c>
+      <c r="E50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" t="s">
+        <v>168</v>
+      </c>
+      <c r="G50" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>226</v>
+      </c>
+      <c r="D51" t="s">
+        <v>221</v>
+      </c>
+      <c r="E51" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" t="s">
+        <v>169</v>
+      </c>
+      <c r="G51" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>388</v>
+      </c>
+      <c r="D52" t="s">
+        <v>221</v>
+      </c>
+      <c r="E52" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>410</v>
+      </c>
+      <c r="D53" t="s">
+        <v>221</v>
+      </c>
+      <c r="E53" t="s">
+        <v>448</v>
+      </c>
+      <c r="F53" t="s">
+        <v>163</v>
+      </c>
+      <c r="G53" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>411</v>
+      </c>
+      <c r="D54" t="s">
+        <v>221</v>
+      </c>
+      <c r="E54" t="s">
+        <v>412</v>
+      </c>
+      <c r="F54" t="s">
+        <v>163</v>
+      </c>
+      <c r="G54" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>4</v>
+      </c>
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>395</v>
+      </c>
+      <c r="D55" t="s">
+        <v>221</v>
+      </c>
+      <c r="E55" t="s">
+        <v>413</v>
+      </c>
+      <c r="F55" t="s">
+        <v>163</v>
+      </c>
+      <c r="G55" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>414</v>
+      </c>
+      <c r="D56" t="s">
+        <v>221</v>
+      </c>
+      <c r="E56" t="s">
+        <v>415</v>
+      </c>
+      <c r="F56" t="s">
+        <v>163</v>
+      </c>
+      <c r="G56" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>416</v>
+      </c>
+      <c r="D57" t="s">
+        <v>221</v>
+      </c>
+      <c r="E57" t="s">
+        <v>417</v>
+      </c>
+      <c r="F57" t="s">
+        <v>163</v>
+      </c>
+      <c r="G57" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>318</v>
+      </c>
+      <c r="D58" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
+        <v>319</v>
+      </c>
+      <c r="D59" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>14</v>
+      </c>
+      <c r="C60" t="s">
+        <v>320</v>
+      </c>
+      <c r="D60" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>321</v>
+      </c>
+      <c r="D61" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>236</v>
+      </c>
+      <c r="D62" t="s">
+        <v>234</v>
+      </c>
+      <c r="E62" t="s">
+        <v>35</v>
+      </c>
+      <c r="F62" t="s">
+        <v>162</v>
+      </c>
+      <c r="G62" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>5</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>237</v>
+      </c>
+      <c r="D63" t="s">
+        <v>234</v>
+      </c>
+      <c r="E63" t="s">
+        <v>36</v>
+      </c>
+      <c r="F63" t="s">
+        <v>162</v>
+      </c>
+      <c r="G63" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>5</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>238</v>
+      </c>
+      <c r="D64" t="s">
+        <v>234</v>
+      </c>
+      <c r="E64" t="s">
+        <v>37</v>
+      </c>
+      <c r="F64" t="s">
+        <v>162</v>
+      </c>
+      <c r="G64" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>5</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>239</v>
+      </c>
+      <c r="D65" t="s">
+        <v>234</v>
+      </c>
+      <c r="E65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65" t="s">
+        <v>162</v>
+      </c>
+      <c r="G65" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>5</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>240</v>
+      </c>
+      <c r="D66" t="s">
+        <v>234</v>
+      </c>
+      <c r="E66" t="s">
+        <v>39</v>
+      </c>
+      <c r="F66" t="s">
+        <v>162</v>
+      </c>
+      <c r="G66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>5</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>241</v>
+      </c>
+      <c r="D67" t="s">
+        <v>234</v>
+      </c>
+      <c r="E67" t="s">
+        <v>40</v>
+      </c>
+      <c r="F67" t="s">
+        <v>162</v>
+      </c>
+      <c r="G67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>242</v>
+      </c>
+      <c r="D68" t="s">
+        <v>234</v>
+      </c>
+      <c r="E68" t="s">
+        <v>41</v>
+      </c>
+      <c r="F68" t="s">
+        <v>162</v>
+      </c>
+      <c r="G68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>5</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>243</v>
+      </c>
+      <c r="D69" t="s">
+        <v>234</v>
+      </c>
+      <c r="E69" t="s">
+        <v>42</v>
+      </c>
+      <c r="F69" t="s">
+        <v>162</v>
+      </c>
+      <c r="G69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>5</v>
+      </c>
+      <c r="B70">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>244</v>
+      </c>
+      <c r="D70" t="s">
+        <v>234</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>162</v>
+      </c>
+      <c r="G70" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>5</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>245</v>
+      </c>
+      <c r="D71" t="s">
+        <v>234</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>162</v>
+      </c>
+      <c r="G71" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>5</v>
+      </c>
+      <c r="B72">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>393</v>
+      </c>
+      <c r="D72" t="s">
+        <v>234</v>
+      </c>
+      <c r="E72" t="s">
+        <v>418</v>
+      </c>
+      <c r="F72" t="s">
+        <v>162</v>
+      </c>
+      <c r="G72" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>5</v>
+      </c>
+      <c r="B73">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>419</v>
+      </c>
+      <c r="D73" t="s">
+        <v>234</v>
+      </c>
+      <c r="E73" t="s">
+        <v>420</v>
+      </c>
+      <c r="G73" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>5</v>
+      </c>
+      <c r="B74">
+        <v>13</v>
+      </c>
+      <c r="C74" t="s">
+        <v>323</v>
+      </c>
+      <c r="D74" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>5</v>
+      </c>
+      <c r="B75">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>324</v>
+      </c>
+      <c r="D75" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>5</v>
+      </c>
+      <c r="B76">
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
+        <v>325</v>
+      </c>
+      <c r="D76" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>6</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>247</v>
+      </c>
+      <c r="D77" t="s">
+        <v>246</v>
+      </c>
+      <c r="E77" t="s">
+        <v>45</v>
+      </c>
+      <c r="F77" t="s">
+        <v>163</v>
+      </c>
+      <c r="G77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>6</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>248</v>
+      </c>
+      <c r="D78" t="s">
+        <v>246</v>
+      </c>
+      <c r="E78" t="s">
+        <v>46</v>
+      </c>
+      <c r="F78" t="s">
+        <v>163</v>
+      </c>
+      <c r="G78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>6</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>249</v>
+      </c>
+      <c r="D79" t="s">
+        <v>246</v>
+      </c>
+      <c r="E79" t="s">
+        <v>47</v>
+      </c>
+      <c r="F79" t="s">
+        <v>170</v>
+      </c>
+      <c r="G79" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>6</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80" t="s">
+        <v>118</v>
+      </c>
+      <c r="D80" t="s">
+        <v>246</v>
+      </c>
+      <c r="E80" t="s">
+        <v>48</v>
+      </c>
+      <c r="F80" t="s">
+        <v>162</v>
+      </c>
+      <c r="G80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>6</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>250</v>
+      </c>
+      <c r="D81" t="s">
+        <v>246</v>
+      </c>
+      <c r="E81" t="s">
+        <v>49</v>
+      </c>
+      <c r="F81" t="s">
+        <v>171</v>
+      </c>
+      <c r="G81" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>6</v>
+      </c>
+      <c r="B82">
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>251</v>
+      </c>
+      <c r="D82" t="s">
+        <v>246</v>
+      </c>
+      <c r="E82" t="s">
+        <v>50</v>
+      </c>
+      <c r="F82" t="s">
+        <v>172</v>
+      </c>
+      <c r="G82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>6</v>
+      </c>
+      <c r="B83">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>449</v>
+      </c>
+      <c r="D83" t="s">
+        <v>246</v>
+      </c>
+      <c r="E83" t="s">
+        <v>452</v>
+      </c>
+      <c r="F83" t="s">
+        <v>172</v>
+      </c>
+      <c r="G83" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>6</v>
+      </c>
+      <c r="B84">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>450</v>
+      </c>
+      <c r="D84" t="s">
+        <v>246</v>
+      </c>
+      <c r="E84" t="s">
+        <v>451</v>
+      </c>
+      <c r="F84" t="s">
+        <v>172</v>
+      </c>
+      <c r="G84" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>6</v>
+      </c>
+      <c r="B85">
+        <v>9</v>
+      </c>
+      <c r="C85" t="s">
+        <v>253</v>
+      </c>
+      <c r="D85" t="s">
+        <v>246</v>
+      </c>
+      <c r="E85" t="s">
+        <v>52</v>
+      </c>
+      <c r="F85" t="s">
+        <v>162</v>
+      </c>
+      <c r="G85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>6</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s">
+        <v>254</v>
+      </c>
+      <c r="D86" t="s">
+        <v>246</v>
+      </c>
+      <c r="E86" t="s">
+        <v>53</v>
+      </c>
+      <c r="F86" t="s">
+        <v>162</v>
+      </c>
+      <c r="G86" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>6</v>
+      </c>
+      <c r="B87">
+        <v>11</v>
+      </c>
+      <c r="C87" t="s">
+        <v>252</v>
+      </c>
+      <c r="D87" t="s">
+        <v>246</v>
+      </c>
+      <c r="E87" t="s">
+        <v>51</v>
+      </c>
+      <c r="F87" t="s">
+        <v>162</v>
+      </c>
+      <c r="G87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>6</v>
+      </c>
+      <c r="B88">
+        <v>12</v>
+      </c>
+      <c r="C88" t="s">
+        <v>125</v>
+      </c>
+      <c r="D88" t="s">
+        <v>246</v>
+      </c>
+      <c r="E88" t="s">
+        <v>54</v>
+      </c>
+      <c r="F88" t="s">
+        <v>162</v>
+      </c>
+      <c r="G88" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>6</v>
+      </c>
+      <c r="B89">
+        <v>13</v>
+      </c>
+      <c r="C89" t="s">
+        <v>421</v>
+      </c>
+      <c r="D89" t="s">
+        <v>246</v>
+      </c>
+      <c r="E89" t="s">
+        <v>422</v>
+      </c>
+      <c r="F89" t="s">
+        <v>163</v>
+      </c>
+      <c r="G89" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>6</v>
+      </c>
+      <c r="B90">
+        <v>14</v>
+      </c>
+      <c r="C90" t="s">
+        <v>389</v>
+      </c>
+      <c r="D90" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>6</v>
+      </c>
+      <c r="B91">
+        <v>15</v>
+      </c>
+      <c r="C91" t="s">
+        <v>365</v>
+      </c>
+      <c r="D91" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>7</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>271</v>
+      </c>
+      <c r="D92" t="s">
+        <v>267</v>
+      </c>
+      <c r="E92" t="s">
+        <v>65</v>
+      </c>
+      <c r="F92" t="s">
+        <v>176</v>
+      </c>
+      <c r="G92" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>7</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93" t="s">
+        <v>272</v>
+      </c>
+      <c r="D93" t="s">
+        <v>267</v>
+      </c>
+      <c r="E93" t="s">
+        <v>66</v>
+      </c>
+      <c r="F93" t="s">
+        <v>176</v>
+      </c>
+      <c r="G93" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>7</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>273</v>
+      </c>
+      <c r="D94" t="s">
+        <v>267</v>
+      </c>
+      <c r="E94" t="s">
+        <v>67</v>
+      </c>
+      <c r="F94" t="s">
+        <v>177</v>
+      </c>
+      <c r="G94" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>7</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95" t="s">
+        <v>270</v>
+      </c>
+      <c r="D95" t="s">
+        <v>267</v>
+      </c>
+      <c r="E95" t="s">
+        <v>64</v>
+      </c>
+      <c r="F95" t="s">
+        <v>175</v>
+      </c>
+      <c r="G95" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>7</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>269</v>
+      </c>
+      <c r="D96" t="s">
+        <v>267</v>
+      </c>
+      <c r="E96" t="s">
+        <v>63</v>
+      </c>
+      <c r="F96" t="s">
+        <v>162</v>
+      </c>
+      <c r="G96" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>7</v>
+      </c>
+      <c r="B97">
+        <v>6</v>
+      </c>
+      <c r="C97" t="s">
+        <v>278</v>
+      </c>
+      <c r="D97" t="s">
+        <v>267</v>
+      </c>
+      <c r="E97" t="s">
+        <v>62</v>
+      </c>
+      <c r="F97" t="s">
+        <v>175</v>
+      </c>
+      <c r="G97" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>7</v>
+      </c>
+      <c r="B98">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>268</v>
+      </c>
+      <c r="D98" t="s">
+        <v>267</v>
+      </c>
+      <c r="E98" t="s">
+        <v>61</v>
+      </c>
+      <c r="F98" t="s">
+        <v>175</v>
+      </c>
+      <c r="G98" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>7</v>
+      </c>
+      <c r="B99">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>274</v>
+      </c>
+      <c r="D99" t="s">
+        <v>267</v>
+      </c>
+      <c r="E99" t="s">
+        <v>68</v>
+      </c>
+      <c r="F99" t="s">
+        <v>178</v>
+      </c>
+      <c r="G99" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>7</v>
+      </c>
+      <c r="B100">
+        <v>9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>275</v>
+      </c>
+      <c r="D100" t="s">
+        <v>267</v>
+      </c>
+      <c r="E100" t="s">
+        <v>69</v>
+      </c>
+      <c r="F100" t="s">
+        <v>178</v>
+      </c>
+      <c r="G100" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>7</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="C101" t="s">
+        <v>366</v>
+      </c>
+      <c r="D101" t="s">
+        <v>267</v>
+      </c>
+      <c r="E101" t="s">
+        <v>70</v>
+      </c>
+      <c r="F101" t="s">
+        <v>177</v>
+      </c>
+      <c r="G101" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>7</v>
+      </c>
+      <c r="B102">
+        <v>11</v>
+      </c>
+      <c r="C102" t="s">
+        <v>371</v>
+      </c>
+      <c r="D102" t="s">
+        <v>267</v>
+      </c>
+      <c r="E102" t="s">
+        <v>71</v>
+      </c>
+      <c r="F102" t="s">
+        <v>177</v>
+      </c>
+      <c r="G102" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>7</v>
+      </c>
+      <c r="B103">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>276</v>
+      </c>
+      <c r="D103" t="s">
+        <v>267</v>
+      </c>
+      <c r="E103" t="s">
+        <v>72</v>
+      </c>
+      <c r="F103" t="s">
+        <v>175</v>
+      </c>
+      <c r="G103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>7</v>
+      </c>
+      <c r="B104">
+        <v>13</v>
+      </c>
+      <c r="C104" t="s">
+        <v>277</v>
+      </c>
+      <c r="D104" t="s">
+        <v>267</v>
+      </c>
+      <c r="E104" t="s">
+        <v>73</v>
+      </c>
+      <c r="F104" t="s">
+        <v>175</v>
+      </c>
+      <c r="G104" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>7</v>
+      </c>
+      <c r="B105">
+        <v>14</v>
+      </c>
+      <c r="C105" t="s">
+        <v>335</v>
+      </c>
+      <c r="D105" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>7</v>
+      </c>
+      <c r="B106">
+        <v>15</v>
+      </c>
+      <c r="C106" t="s">
+        <v>336</v>
+      </c>
+      <c r="D106" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>8</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>256</v>
+      </c>
+      <c r="D107" t="s">
+        <v>423</v>
+      </c>
+      <c r="E107" t="s">
+        <v>57</v>
+      </c>
+      <c r="F107" t="s">
+        <v>174</v>
+      </c>
+      <c r="G107" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>8</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108" t="s">
+        <v>127</v>
+      </c>
+      <c r="D108" t="s">
+        <v>423</v>
+      </c>
+      <c r="E108" t="s">
+        <v>58</v>
+      </c>
+      <c r="F108" t="s">
+        <v>173</v>
+      </c>
+      <c r="G108" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>8</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
+        <v>257</v>
+      </c>
+      <c r="D109" t="s">
+        <v>423</v>
+      </c>
+      <c r="E109" t="s">
+        <v>59</v>
+      </c>
+      <c r="F109" t="s">
+        <v>157</v>
+      </c>
+      <c r="G109" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>8</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+      <c r="C110" t="s">
+        <v>258</v>
+      </c>
+      <c r="D110" t="s">
+        <v>423</v>
+      </c>
+      <c r="E110" t="s">
+        <v>60</v>
+      </c>
+      <c r="F110" t="s">
+        <v>157</v>
+      </c>
+      <c r="G110" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>8</v>
+      </c>
+      <c r="B111">
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>426</v>
+      </c>
+      <c r="D111" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>8</v>
+      </c>
+      <c r="B112">
+        <v>6</v>
+      </c>
+      <c r="C112" t="s">
+        <v>424</v>
+      </c>
+      <c r="D112" t="s">
+        <v>423</v>
+      </c>
+      <c r="E112" t="s">
+        <v>425</v>
+      </c>
+      <c r="F112" t="s">
+        <v>159</v>
+      </c>
+      <c r="G112" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>8</v>
+      </c>
+      <c r="B113">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
+        <v>427</v>
+      </c>
+      <c r="D113" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>8</v>
+      </c>
+      <c r="B114">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s">
+        <v>428</v>
+      </c>
+      <c r="D114" t="s">
+        <v>423</v>
+      </c>
+      <c r="E114" t="s">
+        <v>18</v>
+      </c>
+      <c r="F114" t="s">
+        <v>157</v>
+      </c>
+      <c r="G114" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>8</v>
+      </c>
+      <c r="B115">
+        <v>9</v>
+      </c>
+      <c r="C115" t="s">
+        <v>429</v>
+      </c>
+      <c r="D115" t="s">
+        <v>423</v>
+      </c>
+      <c r="E115" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" t="s">
+        <v>160</v>
+      </c>
+      <c r="G115" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>8</v>
+      </c>
+      <c r="B116">
+        <v>10</v>
+      </c>
+      <c r="C116" t="s">
+        <v>430</v>
+      </c>
+      <c r="D116" t="s">
+        <v>423</v>
+      </c>
+      <c r="E116" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" t="s">
+        <v>158</v>
+      </c>
+      <c r="G116" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>8</v>
+      </c>
+      <c r="B117">
+        <v>11</v>
+      </c>
+      <c r="C117" t="s">
+        <v>431</v>
+      </c>
+      <c r="D117" t="s">
+        <v>423</v>
+      </c>
+      <c r="E117" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117" t="s">
+        <v>159</v>
+      </c>
+      <c r="G117" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>8</v>
+      </c>
+      <c r="B118">
+        <v>12</v>
+      </c>
+      <c r="C118" t="s">
+        <v>432</v>
+      </c>
+      <c r="D118" t="s">
+        <v>423</v>
+      </c>
+      <c r="E118" t="s">
+        <v>15</v>
+      </c>
+      <c r="F118" t="s">
+        <v>121</v>
+      </c>
+      <c r="G118" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>8</v>
+      </c>
+      <c r="B119">
+        <v>13</v>
+      </c>
+      <c r="C119" t="s">
+        <v>433</v>
+      </c>
+      <c r="D119" t="s">
+        <v>423</v>
+      </c>
+      <c r="E119" t="s">
+        <v>19</v>
+      </c>
+      <c r="F119" t="s">
+        <v>163</v>
+      </c>
+      <c r="G119" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>8</v>
+      </c>
+      <c r="B120">
+        <v>14</v>
+      </c>
+      <c r="C120" t="s">
+        <v>337</v>
+      </c>
+      <c r="D120" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>8</v>
+      </c>
+      <c r="B121">
+        <v>15</v>
+      </c>
+      <c r="C121" t="s">
+        <v>338</v>
+      </c>
+      <c r="D121" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>9</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>372</v>
+      </c>
+      <c r="D122" t="s">
+        <v>279</v>
+      </c>
+      <c r="E122" t="s">
+        <v>74</v>
+      </c>
+      <c r="F122" t="s">
+        <v>179</v>
+      </c>
+      <c r="G122" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>9</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123" t="s">
+        <v>373</v>
+      </c>
+      <c r="D123" t="s">
+        <v>279</v>
+      </c>
+      <c r="E123" t="s">
+        <v>75</v>
+      </c>
+      <c r="F123" t="s">
+        <v>179</v>
+      </c>
+      <c r="G123" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>9</v>
+      </c>
+      <c r="B124">
+        <v>3</v>
+      </c>
+      <c r="C124" t="s">
+        <v>134</v>
+      </c>
+      <c r="D124" t="s">
+        <v>279</v>
+      </c>
+      <c r="E124" t="s">
+        <v>76</v>
+      </c>
+      <c r="F124" t="s">
+        <v>180</v>
+      </c>
+      <c r="G124" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>9</v>
+      </c>
+      <c r="B125">
+        <v>4</v>
+      </c>
+      <c r="C125" t="s">
+        <v>135</v>
+      </c>
+      <c r="D125" t="s">
+        <v>279</v>
+      </c>
+      <c r="E125" t="s">
+        <v>77</v>
+      </c>
+      <c r="F125" t="s">
+        <v>180</v>
+      </c>
+      <c r="G125" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>9</v>
+      </c>
+      <c r="B126">
+        <v>5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>374</v>
+      </c>
+      <c r="D126" t="s">
+        <v>279</v>
+      </c>
+      <c r="E126" t="s">
+        <v>78</v>
+      </c>
+      <c r="F126" t="s">
+        <v>156</v>
+      </c>
+      <c r="G126" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>9</v>
+      </c>
+      <c r="B127">
+        <v>6</v>
+      </c>
+      <c r="C127" t="s">
+        <v>339</v>
+      </c>
+      <c r="D127" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>9</v>
+      </c>
+      <c r="B128">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
+        <v>340</v>
+      </c>
+      <c r="D128" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>9</v>
+      </c>
+      <c r="B129">
+        <v>8</v>
+      </c>
+      <c r="C129" t="s">
+        <v>341</v>
+      </c>
+      <c r="D129" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>9</v>
+      </c>
+      <c r="B130">
+        <v>9</v>
+      </c>
+      <c r="C130" t="s">
+        <v>342</v>
+      </c>
+      <c r="D130" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>9</v>
+      </c>
+      <c r="B131">
+        <v>10</v>
+      </c>
+      <c r="C131" t="s">
+        <v>343</v>
+      </c>
+      <c r="D131" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>9</v>
+      </c>
+      <c r="B132">
+        <v>11</v>
+      </c>
+      <c r="C132" t="s">
+        <v>344</v>
+      </c>
+      <c r="D132" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>9</v>
+      </c>
+      <c r="B133">
+        <v>12</v>
+      </c>
+      <c r="C133" t="s">
+        <v>345</v>
+      </c>
+      <c r="D133" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>9</v>
+      </c>
+      <c r="B134">
+        <v>13</v>
+      </c>
+      <c r="C134" t="s">
+        <v>346</v>
+      </c>
+      <c r="D134" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>9</v>
+      </c>
+      <c r="B135">
+        <v>14</v>
+      </c>
+      <c r="C135" t="s">
+        <v>347</v>
+      </c>
+      <c r="D135" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>9</v>
+      </c>
+      <c r="B136">
+        <v>15</v>
+      </c>
+      <c r="C136" t="s">
+        <v>348</v>
+      </c>
+      <c r="D136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>10</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
+        <v>137</v>
+      </c>
+      <c r="D137" t="s">
+        <v>280</v>
+      </c>
+      <c r="E137" t="s">
+        <v>79</v>
+      </c>
+      <c r="F137" t="s">
+        <v>162</v>
+      </c>
+      <c r="G137" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>10</v>
+      </c>
+      <c r="B138">
+        <v>2</v>
+      </c>
+      <c r="C138" t="s">
+        <v>138</v>
+      </c>
+      <c r="D138" t="s">
+        <v>280</v>
+      </c>
+      <c r="E138" t="s">
+        <v>80</v>
+      </c>
+      <c r="F138" t="s">
+        <v>162</v>
+      </c>
+      <c r="G138" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>10</v>
+      </c>
+      <c r="B139">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>139</v>
+      </c>
+      <c r="D139" t="s">
+        <v>280</v>
+      </c>
+      <c r="E139" t="s">
+        <v>81</v>
+      </c>
+      <c r="F139" t="s">
+        <v>162</v>
+      </c>
+      <c r="G139" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>10</v>
+      </c>
+      <c r="B140">
+        <v>4</v>
+      </c>
+      <c r="C140" t="s">
+        <v>140</v>
+      </c>
+      <c r="D140" t="s">
+        <v>280</v>
+      </c>
+      <c r="E140" t="s">
+        <v>82</v>
+      </c>
+      <c r="F140" t="s">
+        <v>162</v>
+      </c>
+      <c r="G140" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>10</v>
+      </c>
+      <c r="B141">
+        <v>5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>141</v>
+      </c>
+      <c r="D141" t="s">
+        <v>280</v>
+      </c>
+      <c r="E141" t="s">
+        <v>83</v>
+      </c>
+      <c r="F141" t="s">
+        <v>162</v>
+      </c>
+      <c r="G141" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>10</v>
+      </c>
+      <c r="B142">
+        <v>6</v>
+      </c>
+      <c r="C142" t="s">
+        <v>142</v>
+      </c>
+      <c r="D142" t="s">
+        <v>280</v>
+      </c>
+      <c r="E142" t="s">
+        <v>84</v>
+      </c>
+      <c r="F142" t="s">
+        <v>162</v>
+      </c>
+      <c r="G142" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>10</v>
+      </c>
+      <c r="B143">
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
+        <v>144</v>
+      </c>
+      <c r="D143" t="s">
+        <v>280</v>
+      </c>
+      <c r="E143" t="s">
+        <v>86</v>
+      </c>
+      <c r="F143" t="s">
+        <v>166</v>
+      </c>
+      <c r="G143" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>10</v>
+      </c>
+      <c r="B144">
+        <v>8</v>
+      </c>
+      <c r="C144" t="s">
+        <v>143</v>
+      </c>
+      <c r="D144" t="s">
+        <v>280</v>
+      </c>
+      <c r="E144" t="s">
+        <v>85</v>
+      </c>
+      <c r="F144" t="s">
+        <v>166</v>
+      </c>
+      <c r="G144" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>10</v>
+      </c>
+      <c r="B145">
+        <v>9</v>
+      </c>
+      <c r="C145" t="s">
+        <v>145</v>
+      </c>
+      <c r="D145" t="s">
+        <v>280</v>
+      </c>
+      <c r="E145" t="s">
+        <v>87</v>
+      </c>
+      <c r="F145" t="s">
+        <v>166</v>
+      </c>
+      <c r="G145" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>10</v>
+      </c>
+      <c r="B146">
+        <v>10</v>
+      </c>
+      <c r="C146" t="s">
+        <v>146</v>
+      </c>
+      <c r="D146" t="s">
+        <v>280</v>
+      </c>
+      <c r="E146" t="s">
+        <v>88</v>
+      </c>
+      <c r="F146" t="s">
+        <v>166</v>
+      </c>
+      <c r="G146" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>10</v>
+      </c>
+      <c r="B147">
+        <v>11</v>
+      </c>
+      <c r="C147" t="s">
+        <v>147</v>
+      </c>
+      <c r="D147" t="s">
+        <v>280</v>
+      </c>
+      <c r="E147" t="s">
+        <v>89</v>
+      </c>
+      <c r="F147" t="s">
+        <v>166</v>
+      </c>
+      <c r="G147" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>10</v>
+      </c>
+      <c r="B148">
+        <v>12</v>
+      </c>
+      <c r="C148" t="s">
+        <v>148</v>
+      </c>
+      <c r="D148" t="s">
+        <v>280</v>
+      </c>
+      <c r="E148" t="s">
+        <v>90</v>
+      </c>
+      <c r="F148" t="s">
+        <v>166</v>
+      </c>
+      <c r="G148" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>10</v>
+      </c>
+      <c r="B149">
+        <v>13</v>
+      </c>
+      <c r="C149" t="s">
+        <v>149</v>
+      </c>
+      <c r="D149" t="s">
+        <v>280</v>
+      </c>
+      <c r="E149" t="s">
+        <v>91</v>
+      </c>
+      <c r="F149" t="s">
+        <v>166</v>
+      </c>
+      <c r="G149" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>10</v>
+      </c>
+      <c r="B150">
+        <v>14</v>
+      </c>
+      <c r="C150" t="s">
+        <v>150</v>
+      </c>
+      <c r="D150" t="s">
+        <v>280</v>
+      </c>
+      <c r="E150" t="s">
+        <v>92</v>
+      </c>
+      <c r="F150" t="s">
+        <v>166</v>
+      </c>
+      <c r="G150" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>10</v>
+      </c>
+      <c r="B151">
+        <v>15</v>
+      </c>
+      <c r="C151" t="s">
+        <v>349</v>
+      </c>
+      <c r="D151" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC914F01-83F7-9C4D-B753-68AC04CC557D}">
+  <dimension ref="A1:G166"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G166"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">

--- a/dev/r3PGmix_info.xlsx
+++ b/dev/r3PGmix_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trotsiuk/Documents/software/r3PG/r3PGmix/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578BDCFA-77AB-D449-9443-875DF1166747}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3FA1FD-8809-F444-883E-8585824E6764}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31800" yWindow="460" windowWidth="19060" windowHeight="28340" activeTab="1" xr2:uid="{9ECC47CC-383C-4247-B9D3-046711674009}"/>
   </bookViews>
@@ -5637,8 +5637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0511D6-D7B7-6549-9CC2-A2624DF98933}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6611,7 +6611,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>644</v>
+        <v>549</v>
       </c>
       <c r="B67" t="s">
         <v>550</v>
@@ -6625,7 +6625,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>644</v>
+        <v>549</v>
       </c>
       <c r="B68" t="s">
         <v>552</v>
@@ -6639,7 +6639,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>644</v>
+        <v>549</v>
       </c>
       <c r="B69" t="s">
         <v>554</v>
@@ -6653,7 +6653,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>644</v>
+        <v>549</v>
       </c>
       <c r="B70" t="s">
         <v>556</v>
@@ -6667,7 +6667,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>644</v>
+        <v>549</v>
       </c>
       <c r="B71" t="s">
         <v>558</v>
@@ -6681,7 +6681,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>644</v>
+        <v>549</v>
       </c>
       <c r="B72" t="s">
         <v>560</v>
@@ -6695,7 +6695,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>644</v>
+        <v>549</v>
       </c>
       <c r="B73" t="s">
         <v>562</v>
@@ -6709,7 +6709,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>644</v>
+        <v>549</v>
       </c>
       <c r="B74" t="s">
         <v>564</v>
@@ -6723,7 +6723,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>644</v>
+        <v>549</v>
       </c>
       <c r="B75" t="s">
         <v>566</v>
@@ -6737,7 +6737,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>644</v>
+        <v>549</v>
       </c>
       <c r="B76" t="s">
         <v>568</v>
@@ -6751,7 +6751,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>644</v>
+        <v>549</v>
       </c>
       <c r="B77" t="s">
         <v>570</v>
@@ -6765,7 +6765,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>644</v>
+        <v>549</v>
       </c>
       <c r="B78" t="s">
         <v>572</v>
@@ -6779,7 +6779,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>644</v>
+        <v>549</v>
       </c>
       <c r="B79" t="s">
         <v>574</v>
@@ -6793,7 +6793,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>644</v>
+        <v>549</v>
       </c>
       <c r="B80" t="s">
         <v>576</v>
@@ -6807,7 +6807,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>644</v>
+        <v>549</v>
       </c>
       <c r="B81" t="s">
         <v>578</v>
@@ -6821,7 +6821,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>644</v>
+        <v>549</v>
       </c>
       <c r="B82" t="s">
         <v>580</v>
@@ -6835,7 +6835,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>644</v>
+        <v>549</v>
       </c>
       <c r="B83" t="s">
         <v>582</v>
